--- a/版本计划表.xlsx
+++ b/版本计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="0" windowWidth="25125" windowHeight="16155" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
@@ -136,38 +136,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI22" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>xiaowenzi:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-大黄鸭机制等已经完成，老版本，大黄鸭在游戏中比较丑。替换方案已经有。美术时间问题</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>《暴走萌宠》研发进度规划及版本计划</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -381,10 +355,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>摆放UI，onsterMediator，PlayerMediator，HandleNotification方法对ui数据进行更新。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>易静</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -401,27 +371,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>补全完善继承自IBlology类的怪物类，摆放地形（3个），完善地形类，完成飞行道具类。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成PlayerProxy，MonsterProxy，TerrainProxy，中的方法，对保存的数据进行修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成MonsterEnum，TerrainEnum两个枚举类型，飞行道具制成预制体。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterMediator，TerrainMediator中的消息发送，完成TerrainCreate（地形生成，金币生成算法）， MonsterCreate（怪物生成算法）命令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>卢平原</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>在Terrain类中判断地形，怪物的生成</t>
+    <t>张子庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐耀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆放地形，根据摆放的地形完成TerrainEnum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对本地的主角数据和怪物数据，地形数据进行保存和更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆放界面，按钮响应。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新主角HP，MP信息与怪物受伤信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作飞行道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱科锦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写金币生成算法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据摆放好的地形测试金币生成算法，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据金币生成小怪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -429,7 +423,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怪物消失在屏幕内的判断，怪物出现在屏幕的判断，</t>
+    <t>小怪模型更改，动画控制器创造</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试当主角与怪物到达指定距离后的怪物AI和动画控制</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -437,71 +435,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>张子庆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成player类，针对主角各种动画播放，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐耀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐耀</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>补全剩余的命令类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>摆放金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善，美化UI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>摆放地形（扩充到6个），补全完善继承自IBlology类的怪物类，摆放地形（3个），完善地形类，增加TerrainEnum枚举类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加怪物种类，补全怪物类与MonsterEnum枚举</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成BossAI，增加Boss特殊命令类（例如召唤）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成Monster类，其中存储每一个在屏幕中出现的怪物，控制怪物AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩充Monster类，其中存储每一个在屏幕中出现的怪物，控制怪物AI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器沟通，更新数据层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器沟通获得各项数值，并初始化数据层</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善数据层，使其能被数据层更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐耀</t>
+    <t>主角技能动画设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善保存怪物/主角/地形信息使用的类，根据怪物信息完成MonsterEnum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对怪物进入屏幕的检测与保存，离开屏幕后的销毁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角和怪物伤害检测并完成对应命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将技能和按键种类识别进行 适配</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1080,6 +1030,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,8 +1060,47 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1116,6 +1108,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1146,49 +1141,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,13 +1517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ23"/>
+  <dimension ref="A1:EZ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="AE7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="BZ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="CB25" sqref="CB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1610,174 +1566,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:156" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="53"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
+      <c r="AB1" s="47"/>
+      <c r="AC1" s="47"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="49"/>
-      <c r="AM1" s="49"/>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="49"/>
-      <c r="AQ1" s="49"/>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49" t="s">
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+      <c r="AS1" s="50"/>
+      <c r="AT1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="49"/>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="49"/>
-      <c r="AZ1" s="49"/>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="49"/>
-      <c r="BD1" s="49"/>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="49"/>
-      <c r="BH1" s="49"/>
-      <c r="BI1" s="49"/>
-      <c r="BJ1" s="49"/>
-      <c r="BK1" s="49"/>
-      <c r="BL1" s="49"/>
-      <c r="BM1" s="49"/>
-      <c r="BN1" s="49" t="s">
+      <c r="AU1" s="50"/>
+      <c r="AV1" s="50"/>
+      <c r="AW1" s="50"/>
+      <c r="AX1" s="50"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="50"/>
+      <c r="BA1" s="50"/>
+      <c r="BB1" s="50"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="50"/>
+      <c r="BE1" s="50"/>
+      <c r="BF1" s="50"/>
+      <c r="BG1" s="50"/>
+      <c r="BH1" s="50"/>
+      <c r="BI1" s="50"/>
+      <c r="BJ1" s="50"/>
+      <c r="BK1" s="50"/>
+      <c r="BL1" s="50"/>
+      <c r="BM1" s="50"/>
+      <c r="BN1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="BO1" s="49"/>
-      <c r="BP1" s="49"/>
-      <c r="BQ1" s="49"/>
-      <c r="BR1" s="49"/>
-      <c r="BS1" s="49"/>
-      <c r="BT1" s="49"/>
-      <c r="BU1" s="49"/>
-      <c r="BV1" s="49"/>
-      <c r="BW1" s="49"/>
-      <c r="BX1" s="49"/>
-      <c r="BY1" s="49"/>
-      <c r="BZ1" s="49"/>
-      <c r="CA1" s="49"/>
-      <c r="CB1" s="49"/>
-      <c r="CC1" s="49"/>
-      <c r="CD1" s="49"/>
-      <c r="CE1" s="49"/>
-      <c r="CF1" s="49"/>
-      <c r="CG1" s="49"/>
-      <c r="CH1" s="49"/>
-      <c r="CI1" s="49"/>
-      <c r="CJ1" s="49"/>
-      <c r="CK1" s="49"/>
-      <c r="CL1" s="49"/>
-      <c r="CM1" s="49"/>
-      <c r="CN1" s="49"/>
-      <c r="CO1" s="49"/>
-      <c r="CP1" s="49"/>
-      <c r="CQ1" s="49"/>
-      <c r="CR1" s="49"/>
-      <c r="CS1" s="55" t="s">
+      <c r="BO1" s="50"/>
+      <c r="BP1" s="50"/>
+      <c r="BQ1" s="50"/>
+      <c r="BR1" s="50"/>
+      <c r="BS1" s="50"/>
+      <c r="BT1" s="50"/>
+      <c r="BU1" s="50"/>
+      <c r="BV1" s="50"/>
+      <c r="BW1" s="50"/>
+      <c r="BX1" s="50"/>
+      <c r="BY1" s="50"/>
+      <c r="BZ1" s="50"/>
+      <c r="CA1" s="50"/>
+      <c r="CB1" s="50"/>
+      <c r="CC1" s="50"/>
+      <c r="CD1" s="50"/>
+      <c r="CE1" s="50"/>
+      <c r="CF1" s="50"/>
+      <c r="CG1" s="50"/>
+      <c r="CH1" s="50"/>
+      <c r="CI1" s="50"/>
+      <c r="CJ1" s="50"/>
+      <c r="CK1" s="50"/>
+      <c r="CL1" s="50"/>
+      <c r="CM1" s="50"/>
+      <c r="CN1" s="50"/>
+      <c r="CO1" s="50"/>
+      <c r="CP1" s="50"/>
+      <c r="CQ1" s="50"/>
+      <c r="CR1" s="50"/>
+      <c r="CS1" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="CT1" s="56"/>
-      <c r="CU1" s="56"/>
-      <c r="CV1" s="56"/>
-      <c r="CW1" s="56"/>
-      <c r="CX1" s="56"/>
-      <c r="CY1" s="56"/>
-      <c r="CZ1" s="56"/>
-      <c r="DA1" s="56"/>
-      <c r="DB1" s="56"/>
-      <c r="DC1" s="56"/>
-      <c r="DD1" s="56"/>
-      <c r="DE1" s="56"/>
-      <c r="DF1" s="56"/>
-      <c r="DG1" s="56"/>
-      <c r="DH1" s="56"/>
-      <c r="DI1" s="56"/>
-      <c r="DJ1" s="56"/>
-      <c r="DK1" s="56"/>
-      <c r="DL1" s="56"/>
-      <c r="DM1" s="56"/>
-      <c r="DN1" s="56"/>
-      <c r="DO1" s="56"/>
-      <c r="DP1" s="56"/>
-      <c r="DQ1" s="56"/>
-      <c r="DR1" s="56"/>
-      <c r="DS1" s="56"/>
-      <c r="DT1" s="56"/>
-      <c r="DU1" s="56"/>
-      <c r="DV1" s="57"/>
-      <c r="DW1" s="55" t="s">
+      <c r="CT1" s="44"/>
+      <c r="CU1" s="44"/>
+      <c r="CV1" s="44"/>
+      <c r="CW1" s="44"/>
+      <c r="CX1" s="44"/>
+      <c r="CY1" s="44"/>
+      <c r="CZ1" s="44"/>
+      <c r="DA1" s="44"/>
+      <c r="DB1" s="44"/>
+      <c r="DC1" s="44"/>
+      <c r="DD1" s="44"/>
+      <c r="DE1" s="44"/>
+      <c r="DF1" s="44"/>
+      <c r="DG1" s="44"/>
+      <c r="DH1" s="44"/>
+      <c r="DI1" s="44"/>
+      <c r="DJ1" s="44"/>
+      <c r="DK1" s="44"/>
+      <c r="DL1" s="44"/>
+      <c r="DM1" s="44"/>
+      <c r="DN1" s="44"/>
+      <c r="DO1" s="44"/>
+      <c r="DP1" s="44"/>
+      <c r="DQ1" s="44"/>
+      <c r="DR1" s="44"/>
+      <c r="DS1" s="44"/>
+      <c r="DT1" s="44"/>
+      <c r="DU1" s="44"/>
+      <c r="DV1" s="45"/>
+      <c r="DW1" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="DX1" s="56"/>
-      <c r="DY1" s="56"/>
-      <c r="DZ1" s="56"/>
-      <c r="EA1" s="56"/>
-      <c r="EB1" s="56"/>
-      <c r="EC1" s="56"/>
-      <c r="ED1" s="56"/>
-      <c r="EE1" s="56"/>
-      <c r="EF1" s="56"/>
-      <c r="EG1" s="56"/>
-      <c r="EH1" s="56"/>
-      <c r="EI1" s="56"/>
-      <c r="EJ1" s="56"/>
-      <c r="EK1" s="56"/>
-      <c r="EL1" s="56"/>
-      <c r="EM1" s="56"/>
-      <c r="EN1" s="56"/>
-      <c r="EO1" s="56"/>
-      <c r="EP1" s="56"/>
-      <c r="EQ1" s="56"/>
-      <c r="ER1" s="56"/>
-      <c r="ES1" s="56"/>
-      <c r="ET1" s="56"/>
-      <c r="EU1" s="56"/>
-      <c r="EV1" s="56"/>
-      <c r="EW1" s="56"/>
-      <c r="EX1" s="56"/>
-      <c r="EY1" s="56"/>
-      <c r="EZ1" s="57"/>
+      <c r="DX1" s="44"/>
+      <c r="DY1" s="44"/>
+      <c r="DZ1" s="44"/>
+      <c r="EA1" s="44"/>
+      <c r="EB1" s="44"/>
+      <c r="EC1" s="44"/>
+      <c r="ED1" s="44"/>
+      <c r="EE1" s="44"/>
+      <c r="EF1" s="44"/>
+      <c r="EG1" s="44"/>
+      <c r="EH1" s="44"/>
+      <c r="EI1" s="44"/>
+      <c r="EJ1" s="44"/>
+      <c r="EK1" s="44"/>
+      <c r="EL1" s="44"/>
+      <c r="EM1" s="44"/>
+      <c r="EN1" s="44"/>
+      <c r="EO1" s="44"/>
+      <c r="EP1" s="44"/>
+      <c r="EQ1" s="44"/>
+      <c r="ER1" s="44"/>
+      <c r="ES1" s="44"/>
+      <c r="ET1" s="44"/>
+      <c r="EU1" s="44"/>
+      <c r="EV1" s="44"/>
+      <c r="EW1" s="44"/>
+      <c r="EX1" s="44"/>
+      <c r="EY1" s="44"/>
+      <c r="EZ1" s="45"/>
     </row>
     <row r="2" spans="1:156" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -1822,210 +1778,210 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49" t="s">
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49" t="s">
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50"/>
+      <c r="AR2" s="50"/>
+      <c r="AS2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49"/>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49" t="s">
+      <c r="AT2" s="50"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="50"/>
+      <c r="AW2" s="50"/>
+      <c r="AX2" s="50"/>
+      <c r="AY2" s="50"/>
+      <c r="AZ2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="49"/>
-      <c r="BB2" s="49"/>
-      <c r="BC2" s="49"/>
-      <c r="BD2" s="49"/>
-      <c r="BE2" s="49"/>
-      <c r="BF2" s="49"/>
-      <c r="BG2" s="37" t="s">
+      <c r="BA2" s="50"/>
+      <c r="BB2" s="50"/>
+      <c r="BC2" s="50"/>
+      <c r="BD2" s="50"/>
+      <c r="BE2" s="50"/>
+      <c r="BF2" s="50"/>
+      <c r="BG2" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
-      <c r="BJ2" s="38"/>
-      <c r="BK2" s="38"/>
-      <c r="BL2" s="38"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="49"/>
-      <c r="BO2" s="49"/>
-      <c r="BP2" s="49" t="s">
+      <c r="BH2" s="52"/>
+      <c r="BI2" s="52"/>
+      <c r="BJ2" s="52"/>
+      <c r="BK2" s="52"/>
+      <c r="BL2" s="52"/>
+      <c r="BM2" s="53"/>
+      <c r="BN2" s="50"/>
+      <c r="BO2" s="50"/>
+      <c r="BP2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="49"/>
-      <c r="BR2" s="49"/>
-      <c r="BS2" s="49"/>
-      <c r="BT2" s="49"/>
-      <c r="BU2" s="49"/>
-      <c r="BV2" s="49"/>
-      <c r="BW2" s="49"/>
-      <c r="BX2" s="49" t="s">
+      <c r="BQ2" s="50"/>
+      <c r="BR2" s="50"/>
+      <c r="BS2" s="50"/>
+      <c r="BT2" s="50"/>
+      <c r="BU2" s="50"/>
+      <c r="BV2" s="50"/>
+      <c r="BW2" s="50"/>
+      <c r="BX2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="49"/>
-      <c r="BZ2" s="49"/>
-      <c r="CA2" s="49"/>
-      <c r="CB2" s="49"/>
-      <c r="CC2" s="49"/>
-      <c r="CD2" s="49"/>
-      <c r="CE2" s="49" t="s">
+      <c r="BY2" s="50"/>
+      <c r="BZ2" s="50"/>
+      <c r="CA2" s="50"/>
+      <c r="CB2" s="50"/>
+      <c r="CC2" s="50"/>
+      <c r="CD2" s="50"/>
+      <c r="CE2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="CF2" s="49"/>
-      <c r="CG2" s="49"/>
-      <c r="CH2" s="49"/>
-      <c r="CI2" s="49"/>
-      <c r="CJ2" s="49"/>
-      <c r="CK2" s="49"/>
-      <c r="CL2" s="49" t="s">
+      <c r="CF2" s="50"/>
+      <c r="CG2" s="50"/>
+      <c r="CH2" s="50"/>
+      <c r="CI2" s="50"/>
+      <c r="CJ2" s="50"/>
+      <c r="CK2" s="50"/>
+      <c r="CL2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="CM2" s="49"/>
-      <c r="CN2" s="49"/>
-      <c r="CO2" s="49"/>
-      <c r="CP2" s="49"/>
-      <c r="CQ2" s="49"/>
-      <c r="CR2" s="49"/>
-      <c r="CS2" s="49" t="s">
+      <c r="CM2" s="50"/>
+      <c r="CN2" s="50"/>
+      <c r="CO2" s="50"/>
+      <c r="CP2" s="50"/>
+      <c r="CQ2" s="50"/>
+      <c r="CR2" s="50"/>
+      <c r="CS2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="CT2" s="49"/>
-      <c r="CU2" s="49"/>
-      <c r="CV2" s="49"/>
-      <c r="CW2" s="49"/>
-      <c r="CX2" s="49"/>
-      <c r="CY2" s="49"/>
-      <c r="CZ2" s="49" t="s">
+      <c r="CT2" s="50"/>
+      <c r="CU2" s="50"/>
+      <c r="CV2" s="50"/>
+      <c r="CW2" s="50"/>
+      <c r="CX2" s="50"/>
+      <c r="CY2" s="50"/>
+      <c r="CZ2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="DA2" s="49"/>
-      <c r="DB2" s="49"/>
-      <c r="DC2" s="49"/>
-      <c r="DD2" s="49"/>
-      <c r="DE2" s="49"/>
-      <c r="DF2" s="49"/>
-      <c r="DG2" s="49" t="s">
+      <c r="DA2" s="50"/>
+      <c r="DB2" s="50"/>
+      <c r="DC2" s="50"/>
+      <c r="DD2" s="50"/>
+      <c r="DE2" s="50"/>
+      <c r="DF2" s="50"/>
+      <c r="DG2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="DH2" s="49"/>
-      <c r="DI2" s="49"/>
-      <c r="DJ2" s="49"/>
-      <c r="DK2" s="49"/>
-      <c r="DL2" s="49"/>
-      <c r="DM2" s="49"/>
-      <c r="DN2" s="37" t="s">
+      <c r="DH2" s="50"/>
+      <c r="DI2" s="50"/>
+      <c r="DJ2" s="50"/>
+      <c r="DK2" s="50"/>
+      <c r="DL2" s="50"/>
+      <c r="DM2" s="50"/>
+      <c r="DN2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="DO2" s="38"/>
-      <c r="DP2" s="38"/>
-      <c r="DQ2" s="38"/>
-      <c r="DR2" s="38"/>
-      <c r="DS2" s="38"/>
-      <c r="DT2" s="38"/>
+      <c r="DO2" s="52"/>
+      <c r="DP2" s="52"/>
+      <c r="DQ2" s="52"/>
+      <c r="DR2" s="52"/>
+      <c r="DS2" s="52"/>
+      <c r="DT2" s="52"/>
       <c r="DU2" s="14"/>
       <c r="DV2" s="15"/>
-      <c r="DW2" s="49" t="s">
+      <c r="DW2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="DX2" s="49"/>
-      <c r="DY2" s="49"/>
-      <c r="DZ2" s="49"/>
-      <c r="EA2" s="49"/>
-      <c r="EB2" s="49"/>
-      <c r="EC2" s="49"/>
-      <c r="ED2" s="49" t="s">
+      <c r="DX2" s="50"/>
+      <c r="DY2" s="50"/>
+      <c r="DZ2" s="50"/>
+      <c r="EA2" s="50"/>
+      <c r="EB2" s="50"/>
+      <c r="EC2" s="50"/>
+      <c r="ED2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="EE2" s="49"/>
-      <c r="EF2" s="49"/>
-      <c r="EG2" s="49"/>
-      <c r="EH2" s="49"/>
-      <c r="EI2" s="49"/>
-      <c r="EJ2" s="49"/>
-      <c r="EK2" s="49" t="s">
+      <c r="EE2" s="50"/>
+      <c r="EF2" s="50"/>
+      <c r="EG2" s="50"/>
+      <c r="EH2" s="50"/>
+      <c r="EI2" s="50"/>
+      <c r="EJ2" s="50"/>
+      <c r="EK2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="49"/>
-      <c r="EM2" s="49"/>
-      <c r="EN2" s="49"/>
-      <c r="EO2" s="49"/>
-      <c r="EP2" s="49"/>
-      <c r="EQ2" s="49"/>
-      <c r="ER2" s="37" t="s">
+      <c r="EL2" s="50"/>
+      <c r="EM2" s="50"/>
+      <c r="EN2" s="50"/>
+      <c r="EO2" s="50"/>
+      <c r="EP2" s="50"/>
+      <c r="EQ2" s="50"/>
+      <c r="ER2" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="ES2" s="38"/>
-      <c r="ET2" s="38"/>
-      <c r="EU2" s="38"/>
-      <c r="EV2" s="38"/>
-      <c r="EW2" s="38"/>
-      <c r="EX2" s="38"/>
+      <c r="ES2" s="52"/>
+      <c r="ET2" s="52"/>
+      <c r="EU2" s="52"/>
+      <c r="EV2" s="52"/>
+      <c r="EW2" s="52"/>
+      <c r="EX2" s="52"/>
       <c r="EY2" s="14"/>
       <c r="EZ2" s="15"/>
     </row>
     <row r="3" spans="1:156" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="41" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="41" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="44" t="s">
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="47" t="s">
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="47"/>
-      <c r="AC3" s="47"/>
-      <c r="AD3" s="48"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="63"/>
       <c r="AE3" s="17">
         <v>15</v>
       </c>
@@ -2406,48 +2362,48 @@
       </c>
     </row>
     <row r="4" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="58" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="60"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="26">
-        <v>3</v>
-      </c>
-      <c r="J4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="36"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22"/>
       <c r="AG4" s="6"/>
@@ -2498,9 +2454,9 @@
       <c r="BZ4" s="22"/>
       <c r="CA4" s="22"/>
       <c r="CB4" s="22"/>
-      <c r="CC4" s="23"/>
-      <c r="CD4" s="24"/>
-      <c r="CE4" s="22"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="13"/>
+      <c r="CE4" s="11"/>
       <c r="CF4" s="22"/>
       <c r="CG4" s="22"/>
       <c r="CH4" s="22"/>
@@ -2546,46 +2502,46 @@
       <c r="DV4" s="22"/>
     </row>
     <row r="5" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
       <c r="I5" s="26">
-        <v>1</v>
-      </c>
-      <c r="J5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="27">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="35"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="36"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22"/>
       <c r="AG5" s="22"/>
@@ -2636,11 +2592,11 @@
       <c r="BZ5" s="22"/>
       <c r="CA5" s="22"/>
       <c r="CB5" s="22"/>
-      <c r="CC5" s="23"/>
-      <c r="CD5" s="24"/>
-      <c r="CE5" s="22"/>
-      <c r="CF5" s="22"/>
-      <c r="CG5" s="22"/>
+      <c r="CC5" s="22"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="11"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="13"/>
       <c r="CH5" s="22"/>
       <c r="CI5" s="22"/>
       <c r="CJ5" s="23"/>
@@ -2684,46 +2640,46 @@
       <c r="DV5" s="22"/>
     </row>
     <row r="6" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="36"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
       <c r="I6" s="26">
+        <v>3</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="28">
         <v>1</v>
       </c>
-      <c r="J6" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="35"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="36"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22"/>
       <c r="AG6" s="22"/>
@@ -2774,12 +2730,12 @@
       <c r="BZ6" s="22"/>
       <c r="CA6" s="22"/>
       <c r="CB6" s="22"/>
-      <c r="CC6" s="23"/>
-      <c r="CD6" s="24"/>
-      <c r="CE6" s="22"/>
+      <c r="CC6" s="22"/>
+      <c r="CD6" s="22"/>
+      <c r="CE6" s="11"/>
       <c r="CF6" s="22"/>
-      <c r="CG6" s="22"/>
-      <c r="CH6" s="22"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="13"/>
       <c r="CI6" s="22"/>
       <c r="CJ6" s="23"/>
       <c r="CK6" s="24"/>
@@ -2822,46 +2778,46 @@
       <c r="DV6" s="22"/>
     </row>
     <row r="7" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="26">
         <v>1</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="J7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="35"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="36"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
       <c r="AG7" s="22"/>
@@ -2902,7 +2858,7 @@
       <c r="BP7" s="23"/>
       <c r="BQ7" s="22"/>
       <c r="BR7" s="22"/>
-      <c r="BS7" s="22"/>
+      <c r="BS7" s="65"/>
       <c r="BT7" s="22"/>
       <c r="BU7" s="22"/>
       <c r="BV7" s="23"/>
@@ -2912,9 +2868,9 @@
       <c r="BZ7" s="22"/>
       <c r="CA7" s="22"/>
       <c r="CB7" s="22"/>
-      <c r="CC7" s="23"/>
-      <c r="CD7" s="24"/>
-      <c r="CE7" s="22"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="13"/>
+      <c r="CE7" s="11"/>
       <c r="CF7" s="22"/>
       <c r="CG7" s="22"/>
       <c r="CH7" s="22"/>
@@ -2960,46 +2916,46 @@
       <c r="DV7" s="22"/>
     </row>
     <row r="8" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="26">
         <v>2</v>
       </c>
-      <c r="J8" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="27">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="29"/>
-      <c r="AA8" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="35"/>
+      <c r="J8" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="36"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22"/>
       <c r="AG8" s="6"/>
@@ -3050,9 +3006,9 @@
       <c r="BZ8" s="22"/>
       <c r="CA8" s="22"/>
       <c r="CB8" s="22"/>
-      <c r="CC8" s="23"/>
-      <c r="CD8" s="24"/>
-      <c r="CE8" s="22"/>
+      <c r="CC8" s="22"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="13"/>
       <c r="CF8" s="22"/>
       <c r="CG8" s="22"/>
       <c r="CH8" s="22"/>
@@ -3098,46 +3054,46 @@
       <c r="DV8" s="22"/>
     </row>
     <row r="9" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="36"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="26">
+        <v>3</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="28">
         <v>1</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="27">
-        <v>3</v>
-      </c>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="35"/>
+      <c r="Y9" s="29"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="36"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
@@ -3188,11 +3144,11 @@
       <c r="BZ9" s="22"/>
       <c r="CA9" s="22"/>
       <c r="CB9" s="22"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="24"/>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22"/>
+      <c r="CE9" s="11"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="13"/>
       <c r="CH9" s="22"/>
       <c r="CI9" s="22"/>
       <c r="CJ9" s="23"/>
@@ -3236,46 +3192,46 @@
       <c r="DV9" s="22"/>
     </row>
     <row r="10" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="36"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="26">
+        <v>3</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="28">
         <v>1</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="35"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="36"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
@@ -3326,12 +3282,12 @@
       <c r="BZ10" s="22"/>
       <c r="CA10" s="22"/>
       <c r="CB10" s="22"/>
-      <c r="CC10" s="23"/>
-      <c r="CD10" s="24"/>
-      <c r="CE10" s="22"/>
+      <c r="CC10" s="22"/>
+      <c r="CD10" s="22"/>
+      <c r="CE10" s="11"/>
       <c r="CF10" s="22"/>
-      <c r="CG10" s="22"/>
-      <c r="CH10" s="22"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="13"/>
       <c r="CI10" s="22"/>
       <c r="CJ10" s="23"/>
       <c r="CK10" s="24"/>
@@ -3374,46 +3330,46 @@
       <c r="DV10" s="22"/>
     </row>
     <row r="11" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="36"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="26">
-        <v>3</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="35"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="29"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="36"/>
       <c r="AE11" s="22"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
@@ -3464,9 +3420,9 @@
       <c r="BZ11" s="22"/>
       <c r="CA11" s="22"/>
       <c r="CB11" s="22"/>
-      <c r="CC11" s="23"/>
-      <c r="CD11" s="24"/>
-      <c r="CE11" s="22"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="13"/>
+      <c r="CE11" s="11"/>
       <c r="CF11" s="22"/>
       <c r="CG11" s="22"/>
       <c r="CH11" s="22"/>
@@ -3512,46 +3468,46 @@
       <c r="DV11" s="22"/>
     </row>
     <row r="12" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="63"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
       <c r="I12" s="26">
-        <v>3</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="36"/>
       <c r="AE12" s="22"/>
       <c r="AF12" s="22"/>
       <c r="AG12" s="6"/>
@@ -3602,9 +3558,9 @@
       <c r="BZ12" s="22"/>
       <c r="CA12" s="22"/>
       <c r="CB12" s="22"/>
-      <c r="CC12" s="23"/>
-      <c r="CD12" s="24"/>
-      <c r="CE12" s="22"/>
+      <c r="CC12" s="22"/>
+      <c r="CD12" s="5"/>
+      <c r="CE12" s="13"/>
       <c r="CF12" s="22"/>
       <c r="CG12" s="22"/>
       <c r="CH12" s="22"/>
@@ -3650,46 +3606,46 @@
       <c r="DV12" s="22"/>
     </row>
     <row r="13" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="36"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
       <c r="I13" s="26">
-        <v>1</v>
-      </c>
-      <c r="J13" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="27">
-        <v>3.5</v>
-      </c>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="36"/>
       <c r="AE13" s="22"/>
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
@@ -3740,12 +3696,12 @@
       <c r="BZ13" s="22"/>
       <c r="CA13" s="22"/>
       <c r="CB13" s="22"/>
-      <c r="CC13" s="23"/>
-      <c r="CD13" s="24"/>
-      <c r="CE13" s="22"/>
-      <c r="CF13" s="22"/>
-      <c r="CG13" s="22"/>
-      <c r="CH13" s="22"/>
+      <c r="CC13" s="22"/>
+      <c r="CD13" s="22"/>
+      <c r="CE13" s="11"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
+      <c r="CH13" s="13"/>
       <c r="CI13" s="22"/>
       <c r="CJ13" s="23"/>
       <c r="CK13" s="24"/>
@@ -3788,46 +3744,46 @@
       <c r="DV13" s="22"/>
     </row>
     <row r="14" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="63"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
       <c r="I14" s="26">
         <v>1</v>
       </c>
-      <c r="J14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="27">
-        <v>3</v>
-      </c>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="34"/>
-      <c r="AD14" s="35"/>
+      <c r="J14" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="36"/>
       <c r="AE14" s="22"/>
       <c r="AF14" s="22"/>
       <c r="AG14" s="22"/>
@@ -3878,9 +3834,9 @@
       <c r="BZ14" s="22"/>
       <c r="CA14" s="22"/>
       <c r="CB14" s="22"/>
-      <c r="CC14" s="23"/>
-      <c r="CD14" s="24"/>
-      <c r="CE14" s="22"/>
+      <c r="CC14" s="5"/>
+      <c r="CD14" s="13"/>
+      <c r="CE14" s="11"/>
       <c r="CF14" s="22"/>
       <c r="CG14" s="22"/>
       <c r="CH14" s="22"/>
@@ -3926,46 +3882,46 @@
       <c r="DV14" s="22"/>
     </row>
     <row r="15" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="36"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
       <c r="I15" s="26">
+        <v>2</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="28">
         <v>1</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="34"/>
-      <c r="AD15" s="35"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="36"/>
       <c r="AE15" s="22"/>
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
@@ -4016,9 +3972,9 @@
       <c r="BZ15" s="22"/>
       <c r="CA15" s="22"/>
       <c r="CB15" s="22"/>
-      <c r="CC15" s="23"/>
-      <c r="CD15" s="24"/>
-      <c r="CE15" s="22"/>
+      <c r="CC15" s="22"/>
+      <c r="CD15" s="5"/>
+      <c r="CE15" s="13"/>
       <c r="CF15" s="22"/>
       <c r="CG15" s="22"/>
       <c r="CH15" s="22"/>
@@ -4064,48 +4020,46 @@
       <c r="DV15" s="22"/>
     </row>
     <row r="16" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="36"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
       <c r="I16" s="26">
-        <v>3</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="35"/>
+        <v>2</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="28">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="36"/>
       <c r="AE16" s="22"/>
       <c r="AF16" s="22"/>
       <c r="AG16" s="6"/>
@@ -4156,12 +4110,12 @@
       <c r="BZ16" s="22"/>
       <c r="CA16" s="22"/>
       <c r="CB16" s="22"/>
-      <c r="CC16" s="23"/>
-      <c r="CD16" s="24"/>
-      <c r="CE16" s="22"/>
-      <c r="CF16" s="22"/>
-      <c r="CG16" s="22"/>
-      <c r="CH16" s="22"/>
+      <c r="CC16" s="22"/>
+      <c r="CD16" s="22"/>
+      <c r="CE16" s="11"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="13"/>
       <c r="CI16" s="22"/>
       <c r="CJ16" s="23"/>
       <c r="CK16" s="24"/>
@@ -4204,46 +4158,46 @@
       <c r="DV16" s="22"/>
     </row>
     <row r="17" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="36"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="63"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
       <c r="I17" s="26">
+        <v>1</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="28">
         <v>2</v>
       </c>
-      <c r="J17" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="27">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="28"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="35"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="36"/>
       <c r="AE17" s="22"/>
       <c r="AF17" s="22"/>
       <c r="AG17" s="22"/>
@@ -4294,9 +4248,9 @@
       <c r="BZ17" s="22"/>
       <c r="CA17" s="22"/>
       <c r="CB17" s="22"/>
-      <c r="CC17" s="23"/>
-      <c r="CD17" s="24"/>
-      <c r="CE17" s="22"/>
+      <c r="CC17" s="5"/>
+      <c r="CD17" s="5"/>
+      <c r="CE17" s="13"/>
       <c r="CF17" s="22"/>
       <c r="CG17" s="22"/>
       <c r="CH17" s="22"/>
@@ -4342,46 +4296,46 @@
       <c r="DV17" s="22"/>
     </row>
     <row r="18" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="26">
         <v>2</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="27">
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="28">
         <v>1</v>
       </c>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-      <c r="AD18" s="35"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="36"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="22"/>
       <c r="AG18" s="22"/>
@@ -4432,11 +4386,11 @@
       <c r="BZ18" s="22"/>
       <c r="CA18" s="22"/>
       <c r="CB18" s="22"/>
-      <c r="CC18" s="23"/>
-      <c r="CD18" s="24"/>
-      <c r="CE18" s="22"/>
-      <c r="CF18" s="22"/>
-      <c r="CG18" s="22"/>
+      <c r="CC18" s="22"/>
+      <c r="CD18" s="22"/>
+      <c r="CE18" s="11"/>
+      <c r="CF18" s="5"/>
+      <c r="CG18" s="13"/>
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
       <c r="CJ18" s="23"/>
@@ -4480,46 +4434,46 @@
       <c r="DV18" s="22"/>
     </row>
     <row r="19" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
       <c r="I19" s="26">
+        <v>3</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="28">
         <v>1</v>
       </c>
-      <c r="J19" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="27">
-        <v>3</v>
-      </c>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB19" s="34"/>
-      <c r="AC19" s="34"/>
-      <c r="AD19" s="35"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="36"/>
       <c r="AE19" s="22"/>
       <c r="AF19" s="22"/>
       <c r="AG19" s="22"/>
@@ -4570,12 +4524,12 @@
       <c r="BZ19" s="22"/>
       <c r="CA19" s="22"/>
       <c r="CB19" s="22"/>
-      <c r="CC19" s="23"/>
-      <c r="CD19" s="24"/>
-      <c r="CE19" s="22"/>
+      <c r="CC19" s="22"/>
+      <c r="CD19" s="22"/>
+      <c r="CE19" s="11"/>
       <c r="CF19" s="22"/>
-      <c r="CG19" s="22"/>
-      <c r="CH19" s="22"/>
+      <c r="CG19" s="5"/>
+      <c r="CH19" s="13"/>
       <c r="CI19" s="22"/>
       <c r="CJ19" s="23"/>
       <c r="CK19" s="24"/>
@@ -4617,558 +4571,6 @@
       <c r="DU19" s="22"/>
       <c r="DV19" s="22"/>
     </row>
-    <row r="20" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="36"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="26">
-        <v>2</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="27">
-        <v>2</v>
-      </c>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="29"/>
-      <c r="AA20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="23"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="22"/>
-      <c r="AM20" s="22"/>
-      <c r="AN20" s="22"/>
-      <c r="AO20" s="22"/>
-      <c r="AP20" s="22"/>
-      <c r="AQ20" s="23"/>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="22"/>
-      <c r="AT20" s="22"/>
-      <c r="AU20" s="22"/>
-      <c r="AV20" s="22"/>
-      <c r="AW20" s="22"/>
-      <c r="AX20" s="23"/>
-      <c r="AY20" s="23"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="6"/>
-      <c r="BB20" s="6"/>
-      <c r="BC20" s="6"/>
-      <c r="BD20" s="6"/>
-      <c r="BE20" s="23"/>
-      <c r="BF20" s="23"/>
-      <c r="BG20" s="22"/>
-      <c r="BH20" s="22"/>
-      <c r="BI20" s="22"/>
-      <c r="BJ20" s="22"/>
-      <c r="BK20" s="22"/>
-      <c r="BL20" s="23"/>
-      <c r="BM20" s="23"/>
-      <c r="BN20" s="22"/>
-      <c r="BO20" s="24"/>
-      <c r="BP20" s="23"/>
-      <c r="BQ20" s="22"/>
-      <c r="BR20" s="22"/>
-      <c r="BS20" s="22"/>
-      <c r="BT20" s="22"/>
-      <c r="BU20" s="22"/>
-      <c r="BV20" s="23"/>
-      <c r="BW20" s="24"/>
-      <c r="BX20" s="22"/>
-      <c r="BY20" s="22"/>
-      <c r="BZ20" s="22"/>
-      <c r="CA20" s="22"/>
-      <c r="CB20" s="22"/>
-      <c r="CC20" s="23"/>
-      <c r="CD20" s="24"/>
-      <c r="CE20" s="22"/>
-      <c r="CF20" s="22"/>
-      <c r="CG20" s="22"/>
-      <c r="CH20" s="22"/>
-      <c r="CI20" s="22"/>
-      <c r="CJ20" s="23"/>
-      <c r="CK20" s="24"/>
-      <c r="CL20" s="22"/>
-      <c r="CM20" s="22"/>
-      <c r="CN20" s="22"/>
-      <c r="CO20" s="22"/>
-      <c r="CP20" s="22"/>
-      <c r="CQ20" s="23"/>
-      <c r="CR20" s="24"/>
-      <c r="CS20" s="23"/>
-      <c r="CT20" s="23"/>
-      <c r="CU20" s="23"/>
-      <c r="CV20" s="22"/>
-      <c r="CW20" s="22"/>
-      <c r="CX20" s="23"/>
-      <c r="CY20" s="24"/>
-      <c r="CZ20" s="22"/>
-      <c r="DA20" s="22"/>
-      <c r="DB20" s="22"/>
-      <c r="DC20" s="22"/>
-      <c r="DD20" s="22"/>
-      <c r="DE20" s="23"/>
-      <c r="DF20" s="24"/>
-      <c r="DG20" s="22"/>
-      <c r="DH20" s="22"/>
-      <c r="DI20" s="22"/>
-      <c r="DJ20" s="22"/>
-      <c r="DK20" s="22"/>
-      <c r="DL20" s="23"/>
-      <c r="DM20" s="24"/>
-      <c r="DN20" s="22"/>
-      <c r="DO20" s="22"/>
-      <c r="DP20" s="22"/>
-      <c r="DQ20" s="22"/>
-      <c r="DR20" s="22"/>
-      <c r="DS20" s="23"/>
-      <c r="DT20" s="24"/>
-      <c r="DU20" s="22"/>
-      <c r="DV20" s="22"/>
-    </row>
-    <row r="21" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="26">
-        <v>1</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="27">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="29"/>
-      <c r="AA21" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="35"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="22"/>
-      <c r="AG21" s="22"/>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="22"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="22"/>
-      <c r="AM21" s="22"/>
-      <c r="AN21" s="22"/>
-      <c r="AO21" s="22"/>
-      <c r="AP21" s="22"/>
-      <c r="AQ21" s="23"/>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="22"/>
-      <c r="AT21" s="22"/>
-      <c r="AU21" s="22"/>
-      <c r="AV21" s="22"/>
-      <c r="AW21" s="22"/>
-      <c r="AX21" s="23"/>
-      <c r="AY21" s="23"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="6"/>
-      <c r="BB21" s="6"/>
-      <c r="BC21" s="6"/>
-      <c r="BD21" s="6"/>
-      <c r="BE21" s="23"/>
-      <c r="BF21" s="23"/>
-      <c r="BG21" s="6"/>
-      <c r="BH21" s="6"/>
-      <c r="BI21" s="22"/>
-      <c r="BJ21" s="22"/>
-      <c r="BK21" s="22"/>
-      <c r="BL21" s="23"/>
-      <c r="BM21" s="23"/>
-      <c r="BN21" s="22"/>
-      <c r="BO21" s="24"/>
-      <c r="BP21" s="23"/>
-      <c r="BQ21" s="22"/>
-      <c r="BR21" s="22"/>
-      <c r="BS21" s="22"/>
-      <c r="BT21" s="22"/>
-      <c r="BU21" s="22"/>
-      <c r="BV21" s="23"/>
-      <c r="BW21" s="24"/>
-      <c r="BX21" s="22"/>
-      <c r="BY21" s="22"/>
-      <c r="BZ21" s="22"/>
-      <c r="CA21" s="22"/>
-      <c r="CB21" s="22"/>
-      <c r="CC21" s="23"/>
-      <c r="CD21" s="24"/>
-      <c r="CE21" s="22"/>
-      <c r="CF21" s="22"/>
-      <c r="CG21" s="22"/>
-      <c r="CH21" s="22"/>
-      <c r="CI21" s="22"/>
-      <c r="CJ21" s="23"/>
-      <c r="CK21" s="24"/>
-      <c r="CL21" s="22"/>
-      <c r="CM21" s="22"/>
-      <c r="CN21" s="22"/>
-      <c r="CO21" s="22"/>
-      <c r="CP21" s="22"/>
-      <c r="CQ21" s="23"/>
-      <c r="CR21" s="24"/>
-      <c r="CS21" s="23"/>
-      <c r="CT21" s="23"/>
-      <c r="CU21" s="23"/>
-      <c r="CV21" s="22"/>
-      <c r="CW21" s="22"/>
-      <c r="CX21" s="23"/>
-      <c r="CY21" s="24"/>
-      <c r="CZ21" s="22"/>
-      <c r="DA21" s="22"/>
-      <c r="DB21" s="22"/>
-      <c r="DC21" s="22"/>
-      <c r="DD21" s="22"/>
-      <c r="DE21" s="23"/>
-      <c r="DF21" s="24"/>
-      <c r="DG21" s="22"/>
-      <c r="DH21" s="22"/>
-      <c r="DI21" s="22"/>
-      <c r="DJ21" s="22"/>
-      <c r="DK21" s="22"/>
-      <c r="DL21" s="23"/>
-      <c r="DM21" s="24"/>
-      <c r="DN21" s="22"/>
-      <c r="DO21" s="22"/>
-      <c r="DP21" s="22"/>
-      <c r="DQ21" s="22"/>
-      <c r="DR21" s="22"/>
-      <c r="DS21" s="23"/>
-      <c r="DT21" s="24"/>
-      <c r="DU21" s="22"/>
-      <c r="DV21" s="22"/>
-    </row>
-    <row r="22" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="36"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="26">
-        <v>1</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="27">
-        <v>3</v>
-      </c>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="6"/>
-      <c r="AH22" s="6"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="23"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="22"/>
-      <c r="AM22" s="22"/>
-      <c r="AN22" s="22"/>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="23"/>
-      <c r="AR22" s="23"/>
-      <c r="AS22" s="22"/>
-      <c r="AT22" s="22"/>
-      <c r="AU22" s="22"/>
-      <c r="AV22" s="22"/>
-      <c r="AW22" s="22"/>
-      <c r="AX22" s="23"/>
-      <c r="AY22" s="23"/>
-      <c r="AZ22" s="22"/>
-      <c r="BA22" s="22"/>
-      <c r="BB22" s="22"/>
-      <c r="BC22" s="22"/>
-      <c r="BD22" s="22"/>
-      <c r="BE22" s="23"/>
-      <c r="BF22" s="23"/>
-      <c r="BG22" s="22"/>
-      <c r="BH22" s="22"/>
-      <c r="BI22" s="22"/>
-      <c r="BJ22" s="22"/>
-      <c r="BK22" s="22"/>
-      <c r="BL22" s="23"/>
-      <c r="BM22" s="23"/>
-      <c r="BN22" s="22"/>
-      <c r="BO22" s="24"/>
-      <c r="BP22" s="23"/>
-      <c r="BQ22" s="22"/>
-      <c r="BR22" s="22"/>
-      <c r="BS22" s="22"/>
-      <c r="BT22" s="22"/>
-      <c r="BU22" s="22"/>
-      <c r="BV22" s="23"/>
-      <c r="BW22" s="24"/>
-      <c r="BX22" s="22"/>
-      <c r="BY22" s="22"/>
-      <c r="BZ22" s="22"/>
-      <c r="CA22" s="22"/>
-      <c r="CB22" s="22"/>
-      <c r="CC22" s="23"/>
-      <c r="CD22" s="24"/>
-      <c r="CE22" s="22"/>
-      <c r="CF22" s="22"/>
-      <c r="CG22" s="22"/>
-      <c r="CH22" s="22"/>
-      <c r="CI22" s="22"/>
-      <c r="CJ22" s="23"/>
-      <c r="CK22" s="24"/>
-      <c r="CL22" s="22"/>
-      <c r="CM22" s="22"/>
-      <c r="CN22" s="22"/>
-      <c r="CO22" s="22"/>
-      <c r="CP22" s="22"/>
-      <c r="CQ22" s="23"/>
-      <c r="CR22" s="24"/>
-      <c r="CS22" s="23"/>
-      <c r="CT22" s="23"/>
-      <c r="CU22" s="23"/>
-      <c r="CV22" s="22"/>
-      <c r="CW22" s="22"/>
-      <c r="CX22" s="23"/>
-      <c r="CY22" s="24"/>
-      <c r="CZ22" s="22"/>
-      <c r="DA22" s="22"/>
-      <c r="DB22" s="22"/>
-      <c r="DC22" s="22"/>
-      <c r="DD22" s="22"/>
-      <c r="DE22" s="23"/>
-      <c r="DF22" s="24"/>
-      <c r="DG22" s="22"/>
-      <c r="DH22" s="22"/>
-      <c r="DI22" s="22"/>
-      <c r="DJ22" s="22"/>
-      <c r="DK22" s="22"/>
-      <c r="DL22" s="23"/>
-      <c r="DM22" s="24"/>
-      <c r="DN22" s="22"/>
-      <c r="DO22" s="22"/>
-      <c r="DP22" s="22"/>
-      <c r="DQ22" s="22"/>
-      <c r="DR22" s="22"/>
-      <c r="DS22" s="23"/>
-      <c r="DT22" s="24"/>
-      <c r="DU22" s="22"/>
-      <c r="DV22" s="22"/>
-    </row>
-    <row r="23" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="36"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="26">
-        <v>1</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="27">
-        <v>3</v>
-      </c>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="29"/>
-      <c r="AA23" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="23"/>
-      <c r="AK23" s="23"/>
-      <c r="AL23" s="22"/>
-      <c r="AM23" s="22"/>
-      <c r="AN23" s="22"/>
-      <c r="AO23" s="22"/>
-      <c r="AP23" s="22"/>
-      <c r="AQ23" s="23"/>
-      <c r="AR23" s="23"/>
-      <c r="AS23" s="22"/>
-      <c r="AT23" s="22"/>
-      <c r="AU23" s="22"/>
-      <c r="AV23" s="22"/>
-      <c r="AW23" s="22"/>
-      <c r="AX23" s="23"/>
-      <c r="AY23" s="23"/>
-      <c r="AZ23" s="6"/>
-      <c r="BA23" s="6"/>
-      <c r="BB23" s="6"/>
-      <c r="BC23" s="6"/>
-      <c r="BD23" s="6"/>
-      <c r="BE23" s="23"/>
-      <c r="BF23" s="23"/>
-      <c r="BG23" s="22"/>
-      <c r="BH23" s="22"/>
-      <c r="BI23" s="22"/>
-      <c r="BJ23" s="22"/>
-      <c r="BK23" s="22"/>
-      <c r="BL23" s="23"/>
-      <c r="BM23" s="23"/>
-      <c r="BN23" s="22"/>
-      <c r="BO23" s="24"/>
-      <c r="BP23" s="23"/>
-      <c r="BQ23" s="22"/>
-      <c r="BR23" s="22"/>
-      <c r="BS23" s="22"/>
-      <c r="BT23" s="22"/>
-      <c r="BU23" s="22"/>
-      <c r="BV23" s="23"/>
-      <c r="BW23" s="24"/>
-      <c r="BX23" s="22"/>
-      <c r="BY23" s="22"/>
-      <c r="BZ23" s="22"/>
-      <c r="CA23" s="22"/>
-      <c r="CB23" s="22"/>
-      <c r="CC23" s="23"/>
-      <c r="CD23" s="24"/>
-      <c r="CE23" s="22"/>
-      <c r="CF23" s="22"/>
-      <c r="CG23" s="22"/>
-      <c r="CH23" s="22"/>
-      <c r="CI23" s="22"/>
-      <c r="CJ23" s="23"/>
-      <c r="CK23" s="24"/>
-      <c r="CL23" s="22"/>
-      <c r="CM23" s="22"/>
-      <c r="CN23" s="22"/>
-      <c r="CO23" s="22"/>
-      <c r="CP23" s="22"/>
-      <c r="CQ23" s="23"/>
-      <c r="CR23" s="24"/>
-      <c r="CS23" s="23"/>
-      <c r="CT23" s="23"/>
-      <c r="CU23" s="23"/>
-      <c r="CV23" s="22"/>
-      <c r="CW23" s="22"/>
-      <c r="CX23" s="23"/>
-      <c r="CY23" s="24"/>
-      <c r="CZ23" s="22"/>
-      <c r="DA23" s="22"/>
-      <c r="DB23" s="22"/>
-      <c r="DC23" s="22"/>
-      <c r="DD23" s="22"/>
-      <c r="DE23" s="23"/>
-      <c r="DF23" s="24"/>
-      <c r="DG23" s="22"/>
-      <c r="DH23" s="22"/>
-      <c r="DI23" s="22"/>
-      <c r="DJ23" s="22"/>
-      <c r="DK23" s="22"/>
-      <c r="DL23" s="23"/>
-      <c r="DM23" s="24"/>
-      <c r="DN23" s="22"/>
-      <c r="DO23" s="22"/>
-      <c r="DP23" s="22"/>
-      <c r="DQ23" s="22"/>
-      <c r="DR23" s="22"/>
-      <c r="DS23" s="23"/>
-      <c r="DT23" s="24"/>
-      <c r="DU23" s="22"/>
-      <c r="DV23" s="22"/>
-    </row>
   </sheetData>
   <autoFilter ref="C3:AD7">
     <filterColumn colId="0" showButton="0"/>
@@ -5194,58 +4596,51 @@
     <filterColumn colId="25" showButton="0"/>
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
-  <mergeCells count="118">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="J22:W22"/>
-    <mergeCell ref="X22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="J23:W23"/>
-    <mergeCell ref="X23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="J20:W20"/>
-    <mergeCell ref="X20:Z20"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="J21:W21"/>
-    <mergeCell ref="X21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="J18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="J19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="F4:H15"/>
-    <mergeCell ref="F16:H23"/>
-    <mergeCell ref="J16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="J17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="J14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="J15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="J12:W12"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="J13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
+  <mergeCells count="99">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="J7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="F4:H19"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="ER2:EX2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="CZ2:DF2"/>
+    <mergeCell ref="DG2:DM2"/>
+    <mergeCell ref="DN2:DT2"/>
+    <mergeCell ref="DW2:EC2"/>
+    <mergeCell ref="ED2:EJ2"/>
+    <mergeCell ref="EK2:EQ2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="J5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="J4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="BN1:CR1"/>
+    <mergeCell ref="CS1:DV1"/>
+    <mergeCell ref="BX2:CD2"/>
+    <mergeCell ref="CE2:CK2"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CS2:CY2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C18:E18"/>
@@ -5270,49 +4665,37 @@
     <mergeCell ref="A1:AD1"/>
     <mergeCell ref="AE1:AS1"/>
     <mergeCell ref="AT1:BM1"/>
-    <mergeCell ref="BN1:CR1"/>
-    <mergeCell ref="CS1:DV1"/>
-    <mergeCell ref="BX2:CD2"/>
-    <mergeCell ref="CE2:CK2"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CS2:CY2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="ER2:EX2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="CZ2:DF2"/>
-    <mergeCell ref="DG2:DM2"/>
-    <mergeCell ref="DN2:DT2"/>
-    <mergeCell ref="DW2:EC2"/>
-    <mergeCell ref="ED2:EJ2"/>
-    <mergeCell ref="EK2:EQ2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="J5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="J4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="J7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="J13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="J18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="J19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="J16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="J17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="J14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="J15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="J12:W12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X2">

--- a/版本计划表.xlsx
+++ b/版本计划表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="0" windowWidth="25125" windowHeight="16155" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="开发版本详细计划 " sheetId="1" r:id="rId1"/>
@@ -136,12 +136,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xiaowenzi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大黄鸭机制等已经完成，老版本，大黄鸭在游戏中比较丑。替换方案已经有。美术时间问题</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="91">
   <si>
     <t>《暴走萌宠》研发进度规划及版本计划</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -355,6 +381,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>摆放UI，onsterMediator，PlayerMediator，HandleNotification方法对ui数据进行更新。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>易静</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -371,87 +401,107 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>补全完善继承自IBlology类的怪物类，摆放地形（3个），完善地形类，完成飞行道具类。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成PlayerProxy，MonsterProxy，TerrainProxy，中的方法，对保存的数据进行修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成MonsterEnum，TerrainEnum两个枚举类型，飞行道具制成预制体。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterMediator，TerrainMediator中的消息发送，完成TerrainCreate（地形生成，金币生成算法）， MonsterCreate（怪物生成算法）命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>卢平原</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>在Terrain类中判断地形，怪物的生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢平原</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物消失在屏幕内的判断，怪物出现在屏幕的判断，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>张子庆</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>张子庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成player类，针对主角各种动画播放，</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>唐耀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>摆放地形，根据摆放的地形完成TerrainEnum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对本地的主角数据和怪物数据，地形数据进行保存和更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>摆放界面，按钮响应。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新主角HP，MP信息与怪物受伤信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>制作飞行道具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱科锦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写金币生成算法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据摆放好的地形测试金币生成算法，</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据金币生成小怪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卢平原</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小怪模型更改，动画控制器创造</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试当主角与怪物到达指定距离后的怪物AI和动画控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张子庆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角技能动画设置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>完善保存怪物/主角/地形信息使用的类，根据怪物信息完成MonsterEnum</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对怪物进入屏幕的检测与保存，离开屏幕后的销毁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主角和怪物伤害检测并完成对应命令</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>将技能和按键种类识别进行 适配</t>
+    <t>唐耀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补全剩余的命令类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆放金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善，美化UI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一测</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆放地形（扩充到6个），补全完善继承自IBlology类的怪物类，摆放地形（3个），完善地形类，增加TerrainEnum枚举类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加怪物种类，补全怪物类与MonsterEnum枚举</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成BossAI，增加Boss特殊命令类（例如召唤）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成Monster类，其中存储每一个在屏幕中出现的怪物，控制怪物AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩充Monster类，其中存储每一个在屏幕中出现的怪物，控制怪物AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器沟通，更新数据层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器沟通获得各项数值，并初始化数据层</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善数据层，使其能被数据层更新</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐耀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1030,34 +1080,97 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,75 +1189,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,13 +1561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ19"/>
+  <dimension ref="A1:EZ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="BZ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="AE7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CB25" sqref="CB25"/>
+      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1566,174 +1610,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:156" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50" t="s">
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50" t="s">
+      <c r="AU1" s="49"/>
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="49"/>
+      <c r="AZ1" s="49"/>
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="49"/>
+      <c r="BD1" s="49"/>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="49"/>
+      <c r="BH1" s="49"/>
+      <c r="BI1" s="49"/>
+      <c r="BJ1" s="49"/>
+      <c r="BK1" s="49"/>
+      <c r="BL1" s="49"/>
+      <c r="BM1" s="49"/>
+      <c r="BN1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="50"/>
-      <c r="BY1" s="50"/>
-      <c r="BZ1" s="50"/>
-      <c r="CA1" s="50"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="50"/>
-      <c r="CI1" s="50"/>
-      <c r="CJ1" s="50"/>
-      <c r="CK1" s="50"/>
-      <c r="CL1" s="50"/>
-      <c r="CM1" s="50"/>
-      <c r="CN1" s="50"/>
-      <c r="CO1" s="50"/>
-      <c r="CP1" s="50"/>
-      <c r="CQ1" s="50"/>
-      <c r="CR1" s="50"/>
-      <c r="CS1" s="43" t="s">
+      <c r="BO1" s="49"/>
+      <c r="BP1" s="49"/>
+      <c r="BQ1" s="49"/>
+      <c r="BR1" s="49"/>
+      <c r="BS1" s="49"/>
+      <c r="BT1" s="49"/>
+      <c r="BU1" s="49"/>
+      <c r="BV1" s="49"/>
+      <c r="BW1" s="49"/>
+      <c r="BX1" s="49"/>
+      <c r="BY1" s="49"/>
+      <c r="BZ1" s="49"/>
+      <c r="CA1" s="49"/>
+      <c r="CB1" s="49"/>
+      <c r="CC1" s="49"/>
+      <c r="CD1" s="49"/>
+      <c r="CE1" s="49"/>
+      <c r="CF1" s="49"/>
+      <c r="CG1" s="49"/>
+      <c r="CH1" s="49"/>
+      <c r="CI1" s="49"/>
+      <c r="CJ1" s="49"/>
+      <c r="CK1" s="49"/>
+      <c r="CL1" s="49"/>
+      <c r="CM1" s="49"/>
+      <c r="CN1" s="49"/>
+      <c r="CO1" s="49"/>
+      <c r="CP1" s="49"/>
+      <c r="CQ1" s="49"/>
+      <c r="CR1" s="49"/>
+      <c r="CS1" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="CT1" s="44"/>
-      <c r="CU1" s="44"/>
-      <c r="CV1" s="44"/>
-      <c r="CW1" s="44"/>
-      <c r="CX1" s="44"/>
-      <c r="CY1" s="44"/>
-      <c r="CZ1" s="44"/>
-      <c r="DA1" s="44"/>
-      <c r="DB1" s="44"/>
-      <c r="DC1" s="44"/>
-      <c r="DD1" s="44"/>
-      <c r="DE1" s="44"/>
-      <c r="DF1" s="44"/>
-      <c r="DG1" s="44"/>
-      <c r="DH1" s="44"/>
-      <c r="DI1" s="44"/>
-      <c r="DJ1" s="44"/>
-      <c r="DK1" s="44"/>
-      <c r="DL1" s="44"/>
-      <c r="DM1" s="44"/>
-      <c r="DN1" s="44"/>
-      <c r="DO1" s="44"/>
-      <c r="DP1" s="44"/>
-      <c r="DQ1" s="44"/>
-      <c r="DR1" s="44"/>
-      <c r="DS1" s="44"/>
-      <c r="DT1" s="44"/>
-      <c r="DU1" s="44"/>
-      <c r="DV1" s="45"/>
-      <c r="DW1" s="43" t="s">
+      <c r="CT1" s="56"/>
+      <c r="CU1" s="56"/>
+      <c r="CV1" s="56"/>
+      <c r="CW1" s="56"/>
+      <c r="CX1" s="56"/>
+      <c r="CY1" s="56"/>
+      <c r="CZ1" s="56"/>
+      <c r="DA1" s="56"/>
+      <c r="DB1" s="56"/>
+      <c r="DC1" s="56"/>
+      <c r="DD1" s="56"/>
+      <c r="DE1" s="56"/>
+      <c r="DF1" s="56"/>
+      <c r="DG1" s="56"/>
+      <c r="DH1" s="56"/>
+      <c r="DI1" s="56"/>
+      <c r="DJ1" s="56"/>
+      <c r="DK1" s="56"/>
+      <c r="DL1" s="56"/>
+      <c r="DM1" s="56"/>
+      <c r="DN1" s="56"/>
+      <c r="DO1" s="56"/>
+      <c r="DP1" s="56"/>
+      <c r="DQ1" s="56"/>
+      <c r="DR1" s="56"/>
+      <c r="DS1" s="56"/>
+      <c r="DT1" s="56"/>
+      <c r="DU1" s="56"/>
+      <c r="DV1" s="57"/>
+      <c r="DW1" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="DX1" s="44"/>
-      <c r="DY1" s="44"/>
-      <c r="DZ1" s="44"/>
-      <c r="EA1" s="44"/>
-      <c r="EB1" s="44"/>
-      <c r="EC1" s="44"/>
-      <c r="ED1" s="44"/>
-      <c r="EE1" s="44"/>
-      <c r="EF1" s="44"/>
-      <c r="EG1" s="44"/>
-      <c r="EH1" s="44"/>
-      <c r="EI1" s="44"/>
-      <c r="EJ1" s="44"/>
-      <c r="EK1" s="44"/>
-      <c r="EL1" s="44"/>
-      <c r="EM1" s="44"/>
-      <c r="EN1" s="44"/>
-      <c r="EO1" s="44"/>
-      <c r="EP1" s="44"/>
-      <c r="EQ1" s="44"/>
-      <c r="ER1" s="44"/>
-      <c r="ES1" s="44"/>
-      <c r="ET1" s="44"/>
-      <c r="EU1" s="44"/>
-      <c r="EV1" s="44"/>
-      <c r="EW1" s="44"/>
-      <c r="EX1" s="44"/>
-      <c r="EY1" s="44"/>
-      <c r="EZ1" s="45"/>
+      <c r="DX1" s="56"/>
+      <c r="DY1" s="56"/>
+      <c r="DZ1" s="56"/>
+      <c r="EA1" s="56"/>
+      <c r="EB1" s="56"/>
+      <c r="EC1" s="56"/>
+      <c r="ED1" s="56"/>
+      <c r="EE1" s="56"/>
+      <c r="EF1" s="56"/>
+      <c r="EG1" s="56"/>
+      <c r="EH1" s="56"/>
+      <c r="EI1" s="56"/>
+      <c r="EJ1" s="56"/>
+      <c r="EK1" s="56"/>
+      <c r="EL1" s="56"/>
+      <c r="EM1" s="56"/>
+      <c r="EN1" s="56"/>
+      <c r="EO1" s="56"/>
+      <c r="EP1" s="56"/>
+      <c r="EQ1" s="56"/>
+      <c r="ER1" s="56"/>
+      <c r="ES1" s="56"/>
+      <c r="ET1" s="56"/>
+      <c r="EU1" s="56"/>
+      <c r="EV1" s="56"/>
+      <c r="EW1" s="56"/>
+      <c r="EX1" s="56"/>
+      <c r="EY1" s="56"/>
+      <c r="EZ1" s="57"/>
     </row>
     <row r="2" spans="1:156" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -1778,210 +1822,210 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50" t="s">
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50" t="s">
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50" t="s">
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="51" t="s">
+      <c r="BA2" s="49"/>
+      <c r="BB2" s="49"/>
+      <c r="BC2" s="49"/>
+      <c r="BD2" s="49"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50" t="s">
+      <c r="BH2" s="38"/>
+      <c r="BI2" s="38"/>
+      <c r="BJ2" s="38"/>
+      <c r="BK2" s="38"/>
+      <c r="BL2" s="38"/>
+      <c r="BM2" s="51"/>
+      <c r="BN2" s="49"/>
+      <c r="BO2" s="49"/>
+      <c r="BP2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="50" t="s">
+      <c r="BQ2" s="49"/>
+      <c r="BR2" s="49"/>
+      <c r="BS2" s="49"/>
+      <c r="BT2" s="49"/>
+      <c r="BU2" s="49"/>
+      <c r="BV2" s="49"/>
+      <c r="BW2" s="49"/>
+      <c r="BX2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="50"/>
-      <c r="BZ2" s="50"/>
-      <c r="CA2" s="50"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="50"/>
-      <c r="CD2" s="50"/>
-      <c r="CE2" s="50" t="s">
+      <c r="BY2" s="49"/>
+      <c r="BZ2" s="49"/>
+      <c r="CA2" s="49"/>
+      <c r="CB2" s="49"/>
+      <c r="CC2" s="49"/>
+      <c r="CD2" s="49"/>
+      <c r="CE2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="CF2" s="50"/>
-      <c r="CG2" s="50"/>
-      <c r="CH2" s="50"/>
-      <c r="CI2" s="50"/>
-      <c r="CJ2" s="50"/>
-      <c r="CK2" s="50"/>
-      <c r="CL2" s="50" t="s">
+      <c r="CF2" s="49"/>
+      <c r="CG2" s="49"/>
+      <c r="CH2" s="49"/>
+      <c r="CI2" s="49"/>
+      <c r="CJ2" s="49"/>
+      <c r="CK2" s="49"/>
+      <c r="CL2" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="CM2" s="50"/>
-      <c r="CN2" s="50"/>
-      <c r="CO2" s="50"/>
-      <c r="CP2" s="50"/>
-      <c r="CQ2" s="50"/>
-      <c r="CR2" s="50"/>
-      <c r="CS2" s="50" t="s">
+      <c r="CM2" s="49"/>
+      <c r="CN2" s="49"/>
+      <c r="CO2" s="49"/>
+      <c r="CP2" s="49"/>
+      <c r="CQ2" s="49"/>
+      <c r="CR2" s="49"/>
+      <c r="CS2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="CT2" s="50"/>
-      <c r="CU2" s="50"/>
-      <c r="CV2" s="50"/>
-      <c r="CW2" s="50"/>
-      <c r="CX2" s="50"/>
-      <c r="CY2" s="50"/>
-      <c r="CZ2" s="50" t="s">
+      <c r="CT2" s="49"/>
+      <c r="CU2" s="49"/>
+      <c r="CV2" s="49"/>
+      <c r="CW2" s="49"/>
+      <c r="CX2" s="49"/>
+      <c r="CY2" s="49"/>
+      <c r="CZ2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="DA2" s="50"/>
-      <c r="DB2" s="50"/>
-      <c r="DC2" s="50"/>
-      <c r="DD2" s="50"/>
-      <c r="DE2" s="50"/>
-      <c r="DF2" s="50"/>
-      <c r="DG2" s="50" t="s">
+      <c r="DA2" s="49"/>
+      <c r="DB2" s="49"/>
+      <c r="DC2" s="49"/>
+      <c r="DD2" s="49"/>
+      <c r="DE2" s="49"/>
+      <c r="DF2" s="49"/>
+      <c r="DG2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="DH2" s="50"/>
-      <c r="DI2" s="50"/>
-      <c r="DJ2" s="50"/>
-      <c r="DK2" s="50"/>
-      <c r="DL2" s="50"/>
-      <c r="DM2" s="50"/>
-      <c r="DN2" s="51" t="s">
+      <c r="DH2" s="49"/>
+      <c r="DI2" s="49"/>
+      <c r="DJ2" s="49"/>
+      <c r="DK2" s="49"/>
+      <c r="DL2" s="49"/>
+      <c r="DM2" s="49"/>
+      <c r="DN2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="DO2" s="52"/>
-      <c r="DP2" s="52"/>
-      <c r="DQ2" s="52"/>
-      <c r="DR2" s="52"/>
-      <c r="DS2" s="52"/>
-      <c r="DT2" s="52"/>
+      <c r="DO2" s="38"/>
+      <c r="DP2" s="38"/>
+      <c r="DQ2" s="38"/>
+      <c r="DR2" s="38"/>
+      <c r="DS2" s="38"/>
+      <c r="DT2" s="38"/>
       <c r="DU2" s="14"/>
       <c r="DV2" s="15"/>
-      <c r="DW2" s="50" t="s">
+      <c r="DW2" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="DX2" s="50"/>
-      <c r="DY2" s="50"/>
-      <c r="DZ2" s="50"/>
-      <c r="EA2" s="50"/>
-      <c r="EB2" s="50"/>
-      <c r="EC2" s="50"/>
-      <c r="ED2" s="50" t="s">
+      <c r="DX2" s="49"/>
+      <c r="DY2" s="49"/>
+      <c r="DZ2" s="49"/>
+      <c r="EA2" s="49"/>
+      <c r="EB2" s="49"/>
+      <c r="EC2" s="49"/>
+      <c r="ED2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="EE2" s="50"/>
-      <c r="EF2" s="50"/>
-      <c r="EG2" s="50"/>
-      <c r="EH2" s="50"/>
-      <c r="EI2" s="50"/>
-      <c r="EJ2" s="50"/>
-      <c r="EK2" s="50" t="s">
+      <c r="EE2" s="49"/>
+      <c r="EF2" s="49"/>
+      <c r="EG2" s="49"/>
+      <c r="EH2" s="49"/>
+      <c r="EI2" s="49"/>
+      <c r="EJ2" s="49"/>
+      <c r="EK2" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="50"/>
-      <c r="EM2" s="50"/>
-      <c r="EN2" s="50"/>
-      <c r="EO2" s="50"/>
-      <c r="EP2" s="50"/>
-      <c r="EQ2" s="50"/>
-      <c r="ER2" s="51" t="s">
+      <c r="EL2" s="49"/>
+      <c r="EM2" s="49"/>
+      <c r="EN2" s="49"/>
+      <c r="EO2" s="49"/>
+      <c r="EP2" s="49"/>
+      <c r="EQ2" s="49"/>
+      <c r="ER2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="ES2" s="52"/>
-      <c r="ET2" s="52"/>
-      <c r="EU2" s="52"/>
-      <c r="EV2" s="52"/>
-      <c r="EW2" s="52"/>
-      <c r="EX2" s="52"/>
+      <c r="ES2" s="38"/>
+      <c r="ET2" s="38"/>
+      <c r="EU2" s="38"/>
+      <c r="EV2" s="38"/>
+      <c r="EW2" s="38"/>
+      <c r="EX2" s="38"/>
       <c r="EY2" s="14"/>
       <c r="EZ2" s="15"/>
     </row>
     <row r="3" spans="1:156" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
       <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="59" t="s">
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="62" t="s">
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="63"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="47"/>
+      <c r="AD3" s="48"/>
       <c r="AE3" s="17">
         <v>15</v>
       </c>
@@ -2362,48 +2406,48 @@
       </c>
     </row>
     <row r="4" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="37" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="26">
+        <v>3</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="27">
         <v>1</v>
       </c>
-      <c r="J4" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="36"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="35"/>
       <c r="AE4" s="22"/>
       <c r="AF4" s="22"/>
       <c r="AG4" s="6"/>
@@ -2454,9 +2498,9 @@
       <c r="BZ4" s="22"/>
       <c r="CA4" s="22"/>
       <c r="CB4" s="22"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="13"/>
-      <c r="CE4" s="11"/>
+      <c r="CC4" s="23"/>
+      <c r="CD4" s="24"/>
+      <c r="CE4" s="22"/>
       <c r="CF4" s="22"/>
       <c r="CG4" s="22"/>
       <c r="CH4" s="22"/>
@@ -2502,46 +2546,46 @@
       <c r="DV4" s="22"/>
     </row>
     <row r="5" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="63"/>
       <c r="I5" s="26">
-        <v>2</v>
-      </c>
-      <c r="J5" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="28">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="36"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="35"/>
       <c r="AE5" s="22"/>
       <c r="AF5" s="22"/>
       <c r="AG5" s="22"/>
@@ -2592,11 +2636,11 @@
       <c r="BZ5" s="22"/>
       <c r="CA5" s="22"/>
       <c r="CB5" s="22"/>
-      <c r="CC5" s="22"/>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="11"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="13"/>
+      <c r="CC5" s="23"/>
+      <c r="CD5" s="24"/>
+      <c r="CE5" s="22"/>
+      <c r="CF5" s="22"/>
+      <c r="CG5" s="22"/>
       <c r="CH5" s="22"/>
       <c r="CI5" s="22"/>
       <c r="CJ5" s="23"/>
@@ -2640,46 +2684,46 @@
       <c r="DV5" s="22"/>
     </row>
     <row r="6" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="26">
-        <v>3</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="28">
         <v>1</v>
       </c>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="36"/>
+      <c r="J6" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="35"/>
       <c r="AE6" s="22"/>
       <c r="AF6" s="22"/>
       <c r="AG6" s="22"/>
@@ -2730,12 +2774,12 @@
       <c r="BZ6" s="22"/>
       <c r="CA6" s="22"/>
       <c r="CB6" s="22"/>
-      <c r="CC6" s="22"/>
-      <c r="CD6" s="22"/>
-      <c r="CE6" s="11"/>
+      <c r="CC6" s="23"/>
+      <c r="CD6" s="24"/>
+      <c r="CE6" s="22"/>
       <c r="CF6" s="22"/>
-      <c r="CG6" s="5"/>
-      <c r="CH6" s="13"/>
+      <c r="CG6" s="22"/>
+      <c r="CH6" s="22"/>
       <c r="CI6" s="22"/>
       <c r="CJ6" s="23"/>
       <c r="CK6" s="24"/>
@@ -2778,46 +2822,46 @@
       <c r="DV6" s="22"/>
     </row>
     <row r="7" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="26">
         <v>1</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="36"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="35"/>
       <c r="AE7" s="22"/>
       <c r="AF7" s="22"/>
       <c r="AG7" s="22"/>
@@ -2858,7 +2902,7 @@
       <c r="BP7" s="23"/>
       <c r="BQ7" s="22"/>
       <c r="BR7" s="22"/>
-      <c r="BS7" s="65"/>
+      <c r="BS7" s="22"/>
       <c r="BT7" s="22"/>
       <c r="BU7" s="22"/>
       <c r="BV7" s="23"/>
@@ -2868,9 +2912,9 @@
       <c r="BZ7" s="22"/>
       <c r="CA7" s="22"/>
       <c r="CB7" s="22"/>
-      <c r="CC7" s="5"/>
-      <c r="CD7" s="13"/>
-      <c r="CE7" s="11"/>
+      <c r="CC7" s="23"/>
+      <c r="CD7" s="24"/>
+      <c r="CE7" s="22"/>
       <c r="CF7" s="22"/>
       <c r="CG7" s="22"/>
       <c r="CH7" s="22"/>
@@ -2916,46 +2960,46 @@
       <c r="DV7" s="22"/>
     </row>
     <row r="8" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="26">
         <v>2</v>
       </c>
-      <c r="J8" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="36"/>
+      <c r="J8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="31"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="35"/>
       <c r="AE8" s="22"/>
       <c r="AF8" s="22"/>
       <c r="AG8" s="6"/>
@@ -3006,9 +3050,9 @@
       <c r="BZ8" s="22"/>
       <c r="CA8" s="22"/>
       <c r="CB8" s="22"/>
-      <c r="CC8" s="22"/>
-      <c r="CD8" s="5"/>
-      <c r="CE8" s="13"/>
+      <c r="CC8" s="23"/>
+      <c r="CD8" s="24"/>
+      <c r="CE8" s="22"/>
       <c r="CF8" s="22"/>
       <c r="CG8" s="22"/>
       <c r="CH8" s="22"/>
@@ -3054,46 +3098,46 @@
       <c r="DV8" s="22"/>
     </row>
     <row r="9" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="26">
+        <v>1</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="27">
         <v>3</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="36"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="35"/>
       <c r="AE9" s="22"/>
       <c r="AF9" s="22"/>
       <c r="AG9" s="22"/>
@@ -3144,11 +3188,11 @@
       <c r="BZ9" s="22"/>
       <c r="CA9" s="22"/>
       <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22"/>
-      <c r="CE9" s="11"/>
-      <c r="CF9" s="5"/>
-      <c r="CG9" s="13"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="24"/>
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
       <c r="CH9" s="22"/>
       <c r="CI9" s="22"/>
       <c r="CJ9" s="23"/>
@@ -3192,46 +3236,46 @@
       <c r="DV9" s="22"/>
     </row>
     <row r="10" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="42"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="26">
-        <v>3</v>
-      </c>
-      <c r="J10" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="36"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="35"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
@@ -3282,12 +3326,12 @@
       <c r="BZ10" s="22"/>
       <c r="CA10" s="22"/>
       <c r="CB10" s="22"/>
-      <c r="CC10" s="22"/>
-      <c r="CD10" s="22"/>
-      <c r="CE10" s="11"/>
+      <c r="CC10" s="23"/>
+      <c r="CD10" s="24"/>
+      <c r="CE10" s="22"/>
       <c r="CF10" s="22"/>
-      <c r="CG10" s="5"/>
-      <c r="CH10" s="13"/>
+      <c r="CG10" s="22"/>
+      <c r="CH10" s="22"/>
       <c r="CI10" s="22"/>
       <c r="CJ10" s="23"/>
       <c r="CK10" s="24"/>
@@ -3330,46 +3374,46 @@
       <c r="DV10" s="22"/>
     </row>
     <row r="11" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="26">
-        <v>1</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="29"/>
+      <c r="AA11" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="35"/>
       <c r="AE11" s="22"/>
       <c r="AF11" s="22"/>
       <c r="AG11" s="22"/>
@@ -3420,9 +3464,9 @@
       <c r="BZ11" s="22"/>
       <c r="CA11" s="22"/>
       <c r="CB11" s="22"/>
-      <c r="CC11" s="5"/>
-      <c r="CD11" s="13"/>
-      <c r="CE11" s="11"/>
+      <c r="CC11" s="23"/>
+      <c r="CD11" s="24"/>
+      <c r="CE11" s="22"/>
       <c r="CF11" s="22"/>
       <c r="CG11" s="22"/>
       <c r="CH11" s="22"/>
@@ -3468,46 +3512,46 @@
       <c r="DV11" s="22"/>
     </row>
     <row r="12" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="26">
-        <v>2</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="35"/>
       <c r="AE12" s="22"/>
       <c r="AF12" s="22"/>
       <c r="AG12" s="6"/>
@@ -3558,9 +3602,9 @@
       <c r="BZ12" s="22"/>
       <c r="CA12" s="22"/>
       <c r="CB12" s="22"/>
-      <c r="CC12" s="22"/>
-      <c r="CD12" s="5"/>
-      <c r="CE12" s="13"/>
+      <c r="CC12" s="23"/>
+      <c r="CD12" s="24"/>
+      <c r="CE12" s="22"/>
       <c r="CF12" s="22"/>
       <c r="CG12" s="22"/>
       <c r="CH12" s="22"/>
@@ -3606,46 +3650,46 @@
       <c r="DV12" s="22"/>
     </row>
     <row r="13" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="26">
-        <v>2</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="28">
-        <v>2</v>
-      </c>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="35"/>
       <c r="AE13" s="22"/>
       <c r="AF13" s="22"/>
       <c r="AG13" s="22"/>
@@ -3696,12 +3740,12 @@
       <c r="BZ13" s="22"/>
       <c r="CA13" s="22"/>
       <c r="CB13" s="22"/>
-      <c r="CC13" s="22"/>
-      <c r="CD13" s="22"/>
-      <c r="CE13" s="11"/>
-      <c r="CF13" s="5"/>
-      <c r="CG13" s="5"/>
-      <c r="CH13" s="13"/>
+      <c r="CC13" s="23"/>
+      <c r="CD13" s="24"/>
+      <c r="CE13" s="22"/>
+      <c r="CF13" s="22"/>
+      <c r="CG13" s="22"/>
+      <c r="CH13" s="22"/>
       <c r="CI13" s="22"/>
       <c r="CJ13" s="23"/>
       <c r="CK13" s="24"/>
@@ -3744,46 +3788,46 @@
       <c r="DV13" s="22"/>
     </row>
     <row r="14" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="26">
         <v>1</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="36"/>
+      <c r="J14" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="35"/>
       <c r="AE14" s="22"/>
       <c r="AF14" s="22"/>
       <c r="AG14" s="22"/>
@@ -3834,9 +3878,9 @@
       <c r="BZ14" s="22"/>
       <c r="CA14" s="22"/>
       <c r="CB14" s="22"/>
-      <c r="CC14" s="5"/>
-      <c r="CD14" s="13"/>
-      <c r="CE14" s="11"/>
+      <c r="CC14" s="23"/>
+      <c r="CD14" s="24"/>
+      <c r="CE14" s="22"/>
       <c r="CF14" s="22"/>
       <c r="CG14" s="22"/>
       <c r="CH14" s="22"/>
@@ -3882,46 +3926,46 @@
       <c r="DV14" s="22"/>
     </row>
     <row r="15" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="36"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
       <c r="I15" s="26">
-        <v>2</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="28">
         <v>1</v>
       </c>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="36"/>
+      <c r="J15" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="35"/>
       <c r="AE15" s="22"/>
       <c r="AF15" s="22"/>
       <c r="AG15" s="22"/>
@@ -3972,9 +4016,9 @@
       <c r="BZ15" s="22"/>
       <c r="CA15" s="22"/>
       <c r="CB15" s="22"/>
-      <c r="CC15" s="22"/>
-      <c r="CD15" s="5"/>
-      <c r="CE15" s="13"/>
+      <c r="CC15" s="23"/>
+      <c r="CD15" s="24"/>
+      <c r="CE15" s="22"/>
       <c r="CF15" s="22"/>
       <c r="CG15" s="22"/>
       <c r="CH15" s="22"/>
@@ -4020,46 +4064,48 @@
       <c r="DV15" s="22"/>
     </row>
     <row r="16" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="42"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
       <c r="I16" s="26">
-        <v>2</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="28">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="36"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="35"/>
       <c r="AE16" s="22"/>
       <c r="AF16" s="22"/>
       <c r="AG16" s="6"/>
@@ -4110,12 +4156,12 @@
       <c r="BZ16" s="22"/>
       <c r="CA16" s="22"/>
       <c r="CB16" s="22"/>
-      <c r="CC16" s="22"/>
-      <c r="CD16" s="22"/>
-      <c r="CE16" s="11"/>
-      <c r="CF16" s="5"/>
-      <c r="CG16" s="5"/>
-      <c r="CH16" s="13"/>
+      <c r="CC16" s="23"/>
+      <c r="CD16" s="24"/>
+      <c r="CE16" s="22"/>
+      <c r="CF16" s="22"/>
+      <c r="CG16" s="22"/>
+      <c r="CH16" s="22"/>
       <c r="CI16" s="22"/>
       <c r="CJ16" s="23"/>
       <c r="CK16" s="24"/>
@@ -4158,46 +4204,46 @@
       <c r="DV16" s="22"/>
     </row>
     <row r="17" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="42"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="26">
-        <v>1</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="28">
         <v>2</v>
       </c>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="30"/>
-      <c r="AA17" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="36"/>
+      <c r="J17" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="31"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="35"/>
       <c r="AE17" s="22"/>
       <c r="AF17" s="22"/>
       <c r="AG17" s="22"/>
@@ -4248,9 +4294,9 @@
       <c r="BZ17" s="22"/>
       <c r="CA17" s="22"/>
       <c r="CB17" s="22"/>
-      <c r="CC17" s="5"/>
-      <c r="CD17" s="5"/>
-      <c r="CE17" s="13"/>
+      <c r="CC17" s="23"/>
+      <c r="CD17" s="24"/>
+      <c r="CE17" s="22"/>
       <c r="CF17" s="22"/>
       <c r="CG17" s="22"/>
       <c r="CH17" s="22"/>
@@ -4296,46 +4342,46 @@
       <c r="DV17" s="22"/>
     </row>
     <row r="18" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="26">
         <v>2</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="28">
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="31"/>
+      <c r="U18" s="31"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="27">
         <v>1</v>
       </c>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="36"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="35"/>
       <c r="AE18" s="22"/>
       <c r="AF18" s="22"/>
       <c r="AG18" s="22"/>
@@ -4386,11 +4432,11 @@
       <c r="BZ18" s="22"/>
       <c r="CA18" s="22"/>
       <c r="CB18" s="22"/>
-      <c r="CC18" s="22"/>
-      <c r="CD18" s="22"/>
-      <c r="CE18" s="11"/>
-      <c r="CF18" s="5"/>
-      <c r="CG18" s="13"/>
+      <c r="CC18" s="23"/>
+      <c r="CD18" s="24"/>
+      <c r="CE18" s="22"/>
+      <c r="CF18" s="22"/>
+      <c r="CG18" s="22"/>
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
       <c r="CJ18" s="23"/>
@@ -4434,46 +4480,46 @@
       <c r="DV18" s="22"/>
     </row>
     <row r="19" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="26">
+        <v>1</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="27">
         <v>3</v>
       </c>
-      <c r="J19" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="36"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="35"/>
       <c r="AE19" s="22"/>
       <c r="AF19" s="22"/>
       <c r="AG19" s="22"/>
@@ -4524,12 +4570,12 @@
       <c r="BZ19" s="22"/>
       <c r="CA19" s="22"/>
       <c r="CB19" s="22"/>
-      <c r="CC19" s="22"/>
-      <c r="CD19" s="22"/>
-      <c r="CE19" s="11"/>
+      <c r="CC19" s="23"/>
+      <c r="CD19" s="24"/>
+      <c r="CE19" s="22"/>
       <c r="CF19" s="22"/>
-      <c r="CG19" s="5"/>
-      <c r="CH19" s="13"/>
+      <c r="CG19" s="22"/>
+      <c r="CH19" s="22"/>
       <c r="CI19" s="22"/>
       <c r="CJ19" s="23"/>
       <c r="CK19" s="24"/>
@@ -4571,6 +4617,558 @@
       <c r="DU19" s="22"/>
       <c r="DV19" s="22"/>
     </row>
+    <row r="20" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="36"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="26">
+        <v>2</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="27">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="23"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
+      <c r="AO20" s="22"/>
+      <c r="AP20" s="22"/>
+      <c r="AQ20" s="23"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="22"/>
+      <c r="AT20" s="22"/>
+      <c r="AU20" s="22"/>
+      <c r="AV20" s="22"/>
+      <c r="AW20" s="22"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="6"/>
+      <c r="BA20" s="6"/>
+      <c r="BB20" s="6"/>
+      <c r="BC20" s="6"/>
+      <c r="BD20" s="6"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="23"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="22"/>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="22"/>
+      <c r="BL20" s="23"/>
+      <c r="BM20" s="23"/>
+      <c r="BN20" s="22"/>
+      <c r="BO20" s="24"/>
+      <c r="BP20" s="23"/>
+      <c r="BQ20" s="22"/>
+      <c r="BR20" s="22"/>
+      <c r="BS20" s="22"/>
+      <c r="BT20" s="22"/>
+      <c r="BU20" s="22"/>
+      <c r="BV20" s="23"/>
+      <c r="BW20" s="24"/>
+      <c r="BX20" s="22"/>
+      <c r="BY20" s="22"/>
+      <c r="BZ20" s="22"/>
+      <c r="CA20" s="22"/>
+      <c r="CB20" s="22"/>
+      <c r="CC20" s="23"/>
+      <c r="CD20" s="24"/>
+      <c r="CE20" s="22"/>
+      <c r="CF20" s="22"/>
+      <c r="CG20" s="22"/>
+      <c r="CH20" s="22"/>
+      <c r="CI20" s="22"/>
+      <c r="CJ20" s="23"/>
+      <c r="CK20" s="24"/>
+      <c r="CL20" s="22"/>
+      <c r="CM20" s="22"/>
+      <c r="CN20" s="22"/>
+      <c r="CO20" s="22"/>
+      <c r="CP20" s="22"/>
+      <c r="CQ20" s="23"/>
+      <c r="CR20" s="24"/>
+      <c r="CS20" s="23"/>
+      <c r="CT20" s="23"/>
+      <c r="CU20" s="23"/>
+      <c r="CV20" s="22"/>
+      <c r="CW20" s="22"/>
+      <c r="CX20" s="23"/>
+      <c r="CY20" s="24"/>
+      <c r="CZ20" s="22"/>
+      <c r="DA20" s="22"/>
+      <c r="DB20" s="22"/>
+      <c r="DC20" s="22"/>
+      <c r="DD20" s="22"/>
+      <c r="DE20" s="23"/>
+      <c r="DF20" s="24"/>
+      <c r="DG20" s="22"/>
+      <c r="DH20" s="22"/>
+      <c r="DI20" s="22"/>
+      <c r="DJ20" s="22"/>
+      <c r="DK20" s="22"/>
+      <c r="DL20" s="23"/>
+      <c r="DM20" s="24"/>
+      <c r="DN20" s="22"/>
+      <c r="DO20" s="22"/>
+      <c r="DP20" s="22"/>
+      <c r="DQ20" s="22"/>
+      <c r="DR20" s="22"/>
+      <c r="DS20" s="23"/>
+      <c r="DT20" s="24"/>
+      <c r="DU20" s="22"/>
+      <c r="DV20" s="22"/>
+    </row>
+    <row r="21" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="36"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="26">
+        <v>1</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="22"/>
+      <c r="AH21" s="22"/>
+      <c r="AI21" s="22"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="6"/>
+      <c r="BA21" s="6"/>
+      <c r="BB21" s="6"/>
+      <c r="BC21" s="6"/>
+      <c r="BD21" s="6"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="6"/>
+      <c r="BH21" s="6"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
+      <c r="BL21" s="23"/>
+      <c r="BM21" s="23"/>
+      <c r="BN21" s="22"/>
+      <c r="BO21" s="24"/>
+      <c r="BP21" s="23"/>
+      <c r="BQ21" s="22"/>
+      <c r="BR21" s="22"/>
+      <c r="BS21" s="22"/>
+      <c r="BT21" s="22"/>
+      <c r="BU21" s="22"/>
+      <c r="BV21" s="23"/>
+      <c r="BW21" s="24"/>
+      <c r="BX21" s="22"/>
+      <c r="BY21" s="22"/>
+      <c r="BZ21" s="22"/>
+      <c r="CA21" s="22"/>
+      <c r="CB21" s="22"/>
+      <c r="CC21" s="23"/>
+      <c r="CD21" s="24"/>
+      <c r="CE21" s="22"/>
+      <c r="CF21" s="22"/>
+      <c r="CG21" s="22"/>
+      <c r="CH21" s="22"/>
+      <c r="CI21" s="22"/>
+      <c r="CJ21" s="23"/>
+      <c r="CK21" s="24"/>
+      <c r="CL21" s="22"/>
+      <c r="CM21" s="22"/>
+      <c r="CN21" s="22"/>
+      <c r="CO21" s="22"/>
+      <c r="CP21" s="22"/>
+      <c r="CQ21" s="23"/>
+      <c r="CR21" s="24"/>
+      <c r="CS21" s="23"/>
+      <c r="CT21" s="23"/>
+      <c r="CU21" s="23"/>
+      <c r="CV21" s="22"/>
+      <c r="CW21" s="22"/>
+      <c r="CX21" s="23"/>
+      <c r="CY21" s="24"/>
+      <c r="CZ21" s="22"/>
+      <c r="DA21" s="22"/>
+      <c r="DB21" s="22"/>
+      <c r="DC21" s="22"/>
+      <c r="DD21" s="22"/>
+      <c r="DE21" s="23"/>
+      <c r="DF21" s="24"/>
+      <c r="DG21" s="22"/>
+      <c r="DH21" s="22"/>
+      <c r="DI21" s="22"/>
+      <c r="DJ21" s="22"/>
+      <c r="DK21" s="22"/>
+      <c r="DL21" s="23"/>
+      <c r="DM21" s="24"/>
+      <c r="DN21" s="22"/>
+      <c r="DO21" s="22"/>
+      <c r="DP21" s="22"/>
+      <c r="DQ21" s="22"/>
+      <c r="DR21" s="22"/>
+      <c r="DS21" s="23"/>
+      <c r="DT21" s="24"/>
+      <c r="DU21" s="22"/>
+      <c r="DV21" s="22"/>
+    </row>
+    <row r="22" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="36"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="28"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="26">
+        <v>1</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="31"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="22"/>
+      <c r="BA22" s="22"/>
+      <c r="BB22" s="22"/>
+      <c r="BC22" s="22"/>
+      <c r="BD22" s="22"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="22"/>
+      <c r="BI22" s="22"/>
+      <c r="BJ22" s="22"/>
+      <c r="BK22" s="22"/>
+      <c r="BL22" s="23"/>
+      <c r="BM22" s="23"/>
+      <c r="BN22" s="22"/>
+      <c r="BO22" s="24"/>
+      <c r="BP22" s="23"/>
+      <c r="BQ22" s="22"/>
+      <c r="BR22" s="22"/>
+      <c r="BS22" s="22"/>
+      <c r="BT22" s="22"/>
+      <c r="BU22" s="22"/>
+      <c r="BV22" s="23"/>
+      <c r="BW22" s="24"/>
+      <c r="BX22" s="22"/>
+      <c r="BY22" s="22"/>
+      <c r="BZ22" s="22"/>
+      <c r="CA22" s="22"/>
+      <c r="CB22" s="22"/>
+      <c r="CC22" s="23"/>
+      <c r="CD22" s="24"/>
+      <c r="CE22" s="22"/>
+      <c r="CF22" s="22"/>
+      <c r="CG22" s="22"/>
+      <c r="CH22" s="22"/>
+      <c r="CI22" s="22"/>
+      <c r="CJ22" s="23"/>
+      <c r="CK22" s="24"/>
+      <c r="CL22" s="22"/>
+      <c r="CM22" s="22"/>
+      <c r="CN22" s="22"/>
+      <c r="CO22" s="22"/>
+      <c r="CP22" s="22"/>
+      <c r="CQ22" s="23"/>
+      <c r="CR22" s="24"/>
+      <c r="CS22" s="23"/>
+      <c r="CT22" s="23"/>
+      <c r="CU22" s="23"/>
+      <c r="CV22" s="22"/>
+      <c r="CW22" s="22"/>
+      <c r="CX22" s="23"/>
+      <c r="CY22" s="24"/>
+      <c r="CZ22" s="22"/>
+      <c r="DA22" s="22"/>
+      <c r="DB22" s="22"/>
+      <c r="DC22" s="22"/>
+      <c r="DD22" s="22"/>
+      <c r="DE22" s="23"/>
+      <c r="DF22" s="24"/>
+      <c r="DG22" s="22"/>
+      <c r="DH22" s="22"/>
+      <c r="DI22" s="22"/>
+      <c r="DJ22" s="22"/>
+      <c r="DK22" s="22"/>
+      <c r="DL22" s="23"/>
+      <c r="DM22" s="24"/>
+      <c r="DN22" s="22"/>
+      <c r="DO22" s="22"/>
+      <c r="DP22" s="22"/>
+      <c r="DQ22" s="22"/>
+      <c r="DR22" s="22"/>
+      <c r="DS22" s="23"/>
+      <c r="DT22" s="24"/>
+      <c r="DU22" s="22"/>
+      <c r="DV22" s="22"/>
+    </row>
+    <row r="23" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="36"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="26">
+        <v>1</v>
+      </c>
+      <c r="J23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="27">
+        <v>3</v>
+      </c>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="22"/>
+      <c r="BH23" s="22"/>
+      <c r="BI23" s="22"/>
+      <c r="BJ23" s="22"/>
+      <c r="BK23" s="22"/>
+      <c r="BL23" s="23"/>
+      <c r="BM23" s="23"/>
+      <c r="BN23" s="22"/>
+      <c r="BO23" s="24"/>
+      <c r="BP23" s="23"/>
+      <c r="BQ23" s="22"/>
+      <c r="BR23" s="22"/>
+      <c r="BS23" s="22"/>
+      <c r="BT23" s="22"/>
+      <c r="BU23" s="22"/>
+      <c r="BV23" s="23"/>
+      <c r="BW23" s="24"/>
+      <c r="BX23" s="22"/>
+      <c r="BY23" s="22"/>
+      <c r="BZ23" s="22"/>
+      <c r="CA23" s="22"/>
+      <c r="CB23" s="22"/>
+      <c r="CC23" s="23"/>
+      <c r="CD23" s="24"/>
+      <c r="CE23" s="22"/>
+      <c r="CF23" s="22"/>
+      <c r="CG23" s="22"/>
+      <c r="CH23" s="22"/>
+      <c r="CI23" s="22"/>
+      <c r="CJ23" s="23"/>
+      <c r="CK23" s="24"/>
+      <c r="CL23" s="22"/>
+      <c r="CM23" s="22"/>
+      <c r="CN23" s="22"/>
+      <c r="CO23" s="22"/>
+      <c r="CP23" s="22"/>
+      <c r="CQ23" s="23"/>
+      <c r="CR23" s="24"/>
+      <c r="CS23" s="23"/>
+      <c r="CT23" s="23"/>
+      <c r="CU23" s="23"/>
+      <c r="CV23" s="22"/>
+      <c r="CW23" s="22"/>
+      <c r="CX23" s="23"/>
+      <c r="CY23" s="24"/>
+      <c r="CZ23" s="22"/>
+      <c r="DA23" s="22"/>
+      <c r="DB23" s="22"/>
+      <c r="DC23" s="22"/>
+      <c r="DD23" s="22"/>
+      <c r="DE23" s="23"/>
+      <c r="DF23" s="24"/>
+      <c r="DG23" s="22"/>
+      <c r="DH23" s="22"/>
+      <c r="DI23" s="22"/>
+      <c r="DJ23" s="22"/>
+      <c r="DK23" s="22"/>
+      <c r="DL23" s="23"/>
+      <c r="DM23" s="24"/>
+      <c r="DN23" s="22"/>
+      <c r="DO23" s="22"/>
+      <c r="DP23" s="22"/>
+      <c r="DQ23" s="22"/>
+      <c r="DR23" s="22"/>
+      <c r="DS23" s="23"/>
+      <c r="DT23" s="24"/>
+      <c r="DU23" s="22"/>
+      <c r="DV23" s="22"/>
+    </row>
   </sheetData>
   <autoFilter ref="C3:AD7">
     <filterColumn colId="0" showButton="0"/>
@@ -4596,16 +5194,93 @@
     <filterColumn colId="25" showButton="0"/>
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
-  <mergeCells count="99">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="J7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="F4:H19"/>
+  <mergeCells count="118">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="J22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="J20:W20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="J21:W21"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="J18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="J19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="F4:H15"/>
+    <mergeCell ref="F16:H23"/>
+    <mergeCell ref="J16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="J17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="J14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="J15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="J12:W12"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="J13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="J11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="DW1:EZ1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="J8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="J9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AD9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="J10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="AE1:AS1"/>
+    <mergeCell ref="AT1:BM1"/>
+    <mergeCell ref="BN1:CR1"/>
+    <mergeCell ref="CS1:DV1"/>
+    <mergeCell ref="BX2:CD2"/>
+    <mergeCell ref="CE2:CK2"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CS2:CY2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="ER2:EX2"/>
     <mergeCell ref="A3:B3"/>
@@ -4630,72 +5305,14 @@
     <mergeCell ref="J4:W4"/>
     <mergeCell ref="X4:Z4"/>
     <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="BN1:CR1"/>
-    <mergeCell ref="CS1:DV1"/>
-    <mergeCell ref="BX2:CD2"/>
-    <mergeCell ref="CE2:CK2"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CS2:CY2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="J11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="DW1:EZ1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="J8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="J9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AD9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="J10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="AE1:AS1"/>
-    <mergeCell ref="AT1:BM1"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="J13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="J18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="J19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="J16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="J17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="J14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="J15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="J12:W12"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="J7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AD6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X2">

--- a/版本计划表.xlsx
+++ b/版本计划表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Tang\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.Tang\Desktop\Parkour\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -136,12 +136,142 @@
         </r>
       </text>
     </comment>
+    <comment ref="AI21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xiaowenzi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大黄鸭机制等已经完成，老版本，大黄鸭在游戏中比较丑。替换方案已经有。美术时间问题</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xiaowenzi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大黄鸭机制等已经完成，老版本，大黄鸭在游戏中比较丑。替换方案已经有。美术时间问题</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xiaowenzi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大黄鸭机制等已经完成，老版本，大黄鸭在游戏中比较丑。替换方案已经有。美术时间问题</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xiaowenzi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大黄鸭机制等已经完成，老版本，大黄鸭在游戏中比较丑。替换方案已经有。美术时间问题</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>xiaowenzi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大黄鸭机制等已经完成，老版本，大黄鸭在游戏中比较丑。替换方案已经有。美术时间问题</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="102">
   <si>
     <t>《暴走萌宠》研发进度规划及版本计划</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -452,6 +582,74 @@
   </si>
   <si>
     <t>将技能和按键种类识别进行 适配</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>将相应参数制成表格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用读表辅助类优化自身第一阶段的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加道具拾取功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使人物拾取道具后，能力发生变化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计Boss行为模式，设计怪物行为模式，增加游戏性</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作BOSS AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化小怪AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考金币优化方案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化屏幕中出现的金币的内存管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加内存上限与对象删除功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢平原</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考怪物内存优化法案</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化屏幕中出现的怪物的内存管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化屏幕中出现道具的内存管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作读表辅助类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正主角动画状态机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对主角不同的动作创建碰撞核，并使碰撞核可以随主角的动作改变而改变</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1030,8 +1228,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,37 +1276,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,10 +1315,34 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,13 +1715,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EZ19"/>
+  <dimension ref="A1:EZ40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane xSplit="30" ySplit="3" topLeftCell="BZ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="30" ySplit="3" topLeftCell="CG40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AD1" sqref="AD1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="CB25" sqref="CB25"/>
+      <selection pane="bottomRight" activeCell="CN39" sqref="CN39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -1566,174 +1764,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:156" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
-      <c r="AS1" s="50"/>
-      <c r="AT1" s="50" t="s">
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
+      <c r="AO1" s="56"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="56"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="AU1" s="50"/>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="50"/>
-      <c r="BA1" s="50"/>
-      <c r="BB1" s="50"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="50"/>
-      <c r="BE1" s="50"/>
-      <c r="BF1" s="50"/>
-      <c r="BG1" s="50"/>
-      <c r="BH1" s="50"/>
-      <c r="BI1" s="50"/>
-      <c r="BJ1" s="50"/>
-      <c r="BK1" s="50"/>
-      <c r="BL1" s="50"/>
-      <c r="BM1" s="50"/>
-      <c r="BN1" s="50" t="s">
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="BO1" s="50"/>
-      <c r="BP1" s="50"/>
-      <c r="BQ1" s="50"/>
-      <c r="BR1" s="50"/>
-      <c r="BS1" s="50"/>
-      <c r="BT1" s="50"/>
-      <c r="BU1" s="50"/>
-      <c r="BV1" s="50"/>
-      <c r="BW1" s="50"/>
-      <c r="BX1" s="50"/>
-      <c r="BY1" s="50"/>
-      <c r="BZ1" s="50"/>
-      <c r="CA1" s="50"/>
-      <c r="CB1" s="50"/>
-      <c r="CC1" s="50"/>
-      <c r="CD1" s="50"/>
-      <c r="CE1" s="50"/>
-      <c r="CF1" s="50"/>
-      <c r="CG1" s="50"/>
-      <c r="CH1" s="50"/>
-      <c r="CI1" s="50"/>
-      <c r="CJ1" s="50"/>
-      <c r="CK1" s="50"/>
-      <c r="CL1" s="50"/>
-      <c r="CM1" s="50"/>
-      <c r="CN1" s="50"/>
-      <c r="CO1" s="50"/>
-      <c r="CP1" s="50"/>
-      <c r="CQ1" s="50"/>
-      <c r="CR1" s="50"/>
-      <c r="CS1" s="43" t="s">
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="56"/>
+      <c r="BR1" s="56"/>
+      <c r="BS1" s="56"/>
+      <c r="BT1" s="56"/>
+      <c r="BU1" s="56"/>
+      <c r="BV1" s="56"/>
+      <c r="BW1" s="56"/>
+      <c r="BX1" s="56"/>
+      <c r="BY1" s="56"/>
+      <c r="BZ1" s="56"/>
+      <c r="CA1" s="56"/>
+      <c r="CB1" s="56"/>
+      <c r="CC1" s="56"/>
+      <c r="CD1" s="56"/>
+      <c r="CE1" s="56"/>
+      <c r="CF1" s="56"/>
+      <c r="CG1" s="56"/>
+      <c r="CH1" s="56"/>
+      <c r="CI1" s="56"/>
+      <c r="CJ1" s="56"/>
+      <c r="CK1" s="56"/>
+      <c r="CL1" s="56"/>
+      <c r="CM1" s="56"/>
+      <c r="CN1" s="56"/>
+      <c r="CO1" s="56"/>
+      <c r="CP1" s="56"/>
+      <c r="CQ1" s="56"/>
+      <c r="CR1" s="56"/>
+      <c r="CS1" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="CT1" s="44"/>
-      <c r="CU1" s="44"/>
-      <c r="CV1" s="44"/>
-      <c r="CW1" s="44"/>
-      <c r="CX1" s="44"/>
-      <c r="CY1" s="44"/>
-      <c r="CZ1" s="44"/>
-      <c r="DA1" s="44"/>
-      <c r="DB1" s="44"/>
-      <c r="DC1" s="44"/>
-      <c r="DD1" s="44"/>
-      <c r="DE1" s="44"/>
-      <c r="DF1" s="44"/>
-      <c r="DG1" s="44"/>
-      <c r="DH1" s="44"/>
-      <c r="DI1" s="44"/>
-      <c r="DJ1" s="44"/>
-      <c r="DK1" s="44"/>
-      <c r="DL1" s="44"/>
-      <c r="DM1" s="44"/>
-      <c r="DN1" s="44"/>
-      <c r="DO1" s="44"/>
-      <c r="DP1" s="44"/>
-      <c r="DQ1" s="44"/>
-      <c r="DR1" s="44"/>
-      <c r="DS1" s="44"/>
-      <c r="DT1" s="44"/>
-      <c r="DU1" s="44"/>
-      <c r="DV1" s="45"/>
-      <c r="DW1" s="43" t="s">
+      <c r="CT1" s="58"/>
+      <c r="CU1" s="58"/>
+      <c r="CV1" s="58"/>
+      <c r="CW1" s="58"/>
+      <c r="CX1" s="58"/>
+      <c r="CY1" s="58"/>
+      <c r="CZ1" s="58"/>
+      <c r="DA1" s="58"/>
+      <c r="DB1" s="58"/>
+      <c r="DC1" s="58"/>
+      <c r="DD1" s="58"/>
+      <c r="DE1" s="58"/>
+      <c r="DF1" s="58"/>
+      <c r="DG1" s="58"/>
+      <c r="DH1" s="58"/>
+      <c r="DI1" s="58"/>
+      <c r="DJ1" s="58"/>
+      <c r="DK1" s="58"/>
+      <c r="DL1" s="58"/>
+      <c r="DM1" s="58"/>
+      <c r="DN1" s="58"/>
+      <c r="DO1" s="58"/>
+      <c r="DP1" s="58"/>
+      <c r="DQ1" s="58"/>
+      <c r="DR1" s="58"/>
+      <c r="DS1" s="58"/>
+      <c r="DT1" s="58"/>
+      <c r="DU1" s="58"/>
+      <c r="DV1" s="59"/>
+      <c r="DW1" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="DX1" s="44"/>
-      <c r="DY1" s="44"/>
-      <c r="DZ1" s="44"/>
-      <c r="EA1" s="44"/>
-      <c r="EB1" s="44"/>
-      <c r="EC1" s="44"/>
-      <c r="ED1" s="44"/>
-      <c r="EE1" s="44"/>
-      <c r="EF1" s="44"/>
-      <c r="EG1" s="44"/>
-      <c r="EH1" s="44"/>
-      <c r="EI1" s="44"/>
-      <c r="EJ1" s="44"/>
-      <c r="EK1" s="44"/>
-      <c r="EL1" s="44"/>
-      <c r="EM1" s="44"/>
-      <c r="EN1" s="44"/>
-      <c r="EO1" s="44"/>
-      <c r="EP1" s="44"/>
-      <c r="EQ1" s="44"/>
-      <c r="ER1" s="44"/>
-      <c r="ES1" s="44"/>
-      <c r="ET1" s="44"/>
-      <c r="EU1" s="44"/>
-      <c r="EV1" s="44"/>
-      <c r="EW1" s="44"/>
-      <c r="EX1" s="44"/>
-      <c r="EY1" s="44"/>
-      <c r="EZ1" s="45"/>
+      <c r="DX1" s="58"/>
+      <c r="DY1" s="58"/>
+      <c r="DZ1" s="58"/>
+      <c r="EA1" s="58"/>
+      <c r="EB1" s="58"/>
+      <c r="EC1" s="58"/>
+      <c r="ED1" s="58"/>
+      <c r="EE1" s="58"/>
+      <c r="EF1" s="58"/>
+      <c r="EG1" s="58"/>
+      <c r="EH1" s="58"/>
+      <c r="EI1" s="58"/>
+      <c r="EJ1" s="58"/>
+      <c r="EK1" s="58"/>
+      <c r="EL1" s="58"/>
+      <c r="EM1" s="58"/>
+      <c r="EN1" s="58"/>
+      <c r="EO1" s="58"/>
+      <c r="EP1" s="58"/>
+      <c r="EQ1" s="58"/>
+      <c r="ER1" s="58"/>
+      <c r="ES1" s="58"/>
+      <c r="ET1" s="58"/>
+      <c r="EU1" s="58"/>
+      <c r="EV1" s="58"/>
+      <c r="EW1" s="58"/>
+      <c r="EX1" s="58"/>
+      <c r="EY1" s="58"/>
+      <c r="EZ1" s="59"/>
     </row>
     <row r="2" spans="1:156" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -1778,210 +1976,210 @@
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="13"/>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50" t="s">
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AR2" s="50"/>
-      <c r="AS2" s="50" t="s">
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="50"/>
-      <c r="AV2" s="50"/>
-      <c r="AW2" s="50"/>
-      <c r="AX2" s="50"/>
-      <c r="AY2" s="50"/>
-      <c r="AZ2" s="50" t="s">
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="BA2" s="50"/>
-      <c r="BB2" s="50"/>
-      <c r="BC2" s="50"/>
-      <c r="BD2" s="50"/>
-      <c r="BE2" s="50"/>
-      <c r="BF2" s="50"/>
-      <c r="BG2" s="51" t="s">
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BH2" s="52"/>
-      <c r="BI2" s="52"/>
-      <c r="BJ2" s="52"/>
-      <c r="BK2" s="52"/>
-      <c r="BL2" s="52"/>
-      <c r="BM2" s="53"/>
-      <c r="BN2" s="50"/>
-      <c r="BO2" s="50"/>
-      <c r="BP2" s="50" t="s">
+      <c r="BH2" s="45"/>
+      <c r="BI2" s="45"/>
+      <c r="BJ2" s="45"/>
+      <c r="BK2" s="45"/>
+      <c r="BL2" s="45"/>
+      <c r="BM2" s="61"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
+      <c r="BP2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="BQ2" s="50"/>
-      <c r="BR2" s="50"/>
-      <c r="BS2" s="50"/>
-      <c r="BT2" s="50"/>
-      <c r="BU2" s="50"/>
-      <c r="BV2" s="50"/>
-      <c r="BW2" s="50"/>
-      <c r="BX2" s="50" t="s">
+      <c r="BQ2" s="56"/>
+      <c r="BR2" s="56"/>
+      <c r="BS2" s="56"/>
+      <c r="BT2" s="56"/>
+      <c r="BU2" s="56"/>
+      <c r="BV2" s="56"/>
+      <c r="BW2" s="56"/>
+      <c r="BX2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="50"/>
-      <c r="BZ2" s="50"/>
-      <c r="CA2" s="50"/>
-      <c r="CB2" s="50"/>
-      <c r="CC2" s="50"/>
-      <c r="CD2" s="50"/>
-      <c r="CE2" s="50" t="s">
+      <c r="BY2" s="56"/>
+      <c r="BZ2" s="56"/>
+      <c r="CA2" s="56"/>
+      <c r="CB2" s="56"/>
+      <c r="CC2" s="56"/>
+      <c r="CD2" s="56"/>
+      <c r="CE2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="CF2" s="50"/>
-      <c r="CG2" s="50"/>
-      <c r="CH2" s="50"/>
-      <c r="CI2" s="50"/>
-      <c r="CJ2" s="50"/>
-      <c r="CK2" s="50"/>
-      <c r="CL2" s="50" t="s">
+      <c r="CF2" s="56"/>
+      <c r="CG2" s="56"/>
+      <c r="CH2" s="56"/>
+      <c r="CI2" s="56"/>
+      <c r="CJ2" s="56"/>
+      <c r="CK2" s="56"/>
+      <c r="CL2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="CM2" s="50"/>
-      <c r="CN2" s="50"/>
-      <c r="CO2" s="50"/>
-      <c r="CP2" s="50"/>
-      <c r="CQ2" s="50"/>
-      <c r="CR2" s="50"/>
-      <c r="CS2" s="50" t="s">
+      <c r="CM2" s="56"/>
+      <c r="CN2" s="56"/>
+      <c r="CO2" s="56"/>
+      <c r="CP2" s="56"/>
+      <c r="CQ2" s="56"/>
+      <c r="CR2" s="56"/>
+      <c r="CS2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="CT2" s="50"/>
-      <c r="CU2" s="50"/>
-      <c r="CV2" s="50"/>
-      <c r="CW2" s="50"/>
-      <c r="CX2" s="50"/>
-      <c r="CY2" s="50"/>
-      <c r="CZ2" s="50" t="s">
+      <c r="CT2" s="56"/>
+      <c r="CU2" s="56"/>
+      <c r="CV2" s="56"/>
+      <c r="CW2" s="56"/>
+      <c r="CX2" s="56"/>
+      <c r="CY2" s="56"/>
+      <c r="CZ2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="DA2" s="50"/>
-      <c r="DB2" s="50"/>
-      <c r="DC2" s="50"/>
-      <c r="DD2" s="50"/>
-      <c r="DE2" s="50"/>
-      <c r="DF2" s="50"/>
-      <c r="DG2" s="50" t="s">
+      <c r="DA2" s="56"/>
+      <c r="DB2" s="56"/>
+      <c r="DC2" s="56"/>
+      <c r="DD2" s="56"/>
+      <c r="DE2" s="56"/>
+      <c r="DF2" s="56"/>
+      <c r="DG2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="DH2" s="50"/>
-      <c r="DI2" s="50"/>
-      <c r="DJ2" s="50"/>
-      <c r="DK2" s="50"/>
-      <c r="DL2" s="50"/>
-      <c r="DM2" s="50"/>
-      <c r="DN2" s="51" t="s">
+      <c r="DH2" s="56"/>
+      <c r="DI2" s="56"/>
+      <c r="DJ2" s="56"/>
+      <c r="DK2" s="56"/>
+      <c r="DL2" s="56"/>
+      <c r="DM2" s="56"/>
+      <c r="DN2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="DO2" s="52"/>
-      <c r="DP2" s="52"/>
-      <c r="DQ2" s="52"/>
-      <c r="DR2" s="52"/>
-      <c r="DS2" s="52"/>
-      <c r="DT2" s="52"/>
+      <c r="DO2" s="45"/>
+      <c r="DP2" s="45"/>
+      <c r="DQ2" s="45"/>
+      <c r="DR2" s="45"/>
+      <c r="DS2" s="45"/>
+      <c r="DT2" s="45"/>
       <c r="DU2" s="14"/>
       <c r="DV2" s="15"/>
-      <c r="DW2" s="50" t="s">
+      <c r="DW2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="DX2" s="50"/>
-      <c r="DY2" s="50"/>
-      <c r="DZ2" s="50"/>
-      <c r="EA2" s="50"/>
-      <c r="EB2" s="50"/>
-      <c r="EC2" s="50"/>
-      <c r="ED2" s="50" t="s">
+      <c r="DX2" s="56"/>
+      <c r="DY2" s="56"/>
+      <c r="DZ2" s="56"/>
+      <c r="EA2" s="56"/>
+      <c r="EB2" s="56"/>
+      <c r="EC2" s="56"/>
+      <c r="ED2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="EE2" s="50"/>
-      <c r="EF2" s="50"/>
-      <c r="EG2" s="50"/>
-      <c r="EH2" s="50"/>
-      <c r="EI2" s="50"/>
-      <c r="EJ2" s="50"/>
-      <c r="EK2" s="50" t="s">
+      <c r="EE2" s="56"/>
+      <c r="EF2" s="56"/>
+      <c r="EG2" s="56"/>
+      <c r="EH2" s="56"/>
+      <c r="EI2" s="56"/>
+      <c r="EJ2" s="56"/>
+      <c r="EK2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="EL2" s="50"/>
-      <c r="EM2" s="50"/>
-      <c r="EN2" s="50"/>
-      <c r="EO2" s="50"/>
-      <c r="EP2" s="50"/>
-      <c r="EQ2" s="50"/>
-      <c r="ER2" s="51" t="s">
+      <c r="EL2" s="56"/>
+      <c r="EM2" s="56"/>
+      <c r="EN2" s="56"/>
+      <c r="EO2" s="56"/>
+      <c r="EP2" s="56"/>
+      <c r="EQ2" s="56"/>
+      <c r="ER2" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="ES2" s="52"/>
-      <c r="ET2" s="52"/>
-      <c r="EU2" s="52"/>
-      <c r="EV2" s="52"/>
-      <c r="EW2" s="52"/>
-      <c r="EX2" s="52"/>
+      <c r="ES2" s="45"/>
+      <c r="ET2" s="45"/>
+      <c r="EU2" s="45"/>
+      <c r="EV2" s="45"/>
+      <c r="EW2" s="45"/>
+      <c r="EX2" s="45"/>
       <c r="EY2" s="14"/>
       <c r="EZ2" s="15"/>
     </row>
     <row r="3" spans="1:156" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56" t="s">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56" t="s">
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
       <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="59" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="62" t="s">
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="63"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="55"/>
       <c r="AE3" s="17">
         <v>15</v>
       </c>
@@ -2362,7 +2560,7 @@
       </c>
     </row>
     <row r="4" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="2"/>
       <c r="C4" s="28" t="s">
         <v>57</v>
@@ -2502,7 +2700,7 @@
       <c r="DV4" s="22"/>
     </row>
     <row r="5" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="2"/>
       <c r="C5" s="28" t="s">
         <v>55</v>
@@ -2640,7 +2838,7 @@
       <c r="DV5" s="22"/>
     </row>
     <row r="6" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="2"/>
       <c r="C6" s="28" t="s">
         <v>56</v>
@@ -2778,7 +2976,7 @@
       <c r="DV6" s="22"/>
     </row>
     <row r="7" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="2"/>
       <c r="C7" s="28" t="s">
         <v>55</v>
@@ -2858,7 +3056,7 @@
       <c r="BP7" s="23"/>
       <c r="BQ7" s="22"/>
       <c r="BR7" s="22"/>
-      <c r="BS7" s="65"/>
+      <c r="BS7" s="27"/>
       <c r="BT7" s="22"/>
       <c r="BU7" s="22"/>
       <c r="BV7" s="23"/>
@@ -2916,7 +3114,7 @@
       <c r="DV7" s="22"/>
     </row>
     <row r="8" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2"/>
       <c r="C8" s="28" t="s">
         <v>57</v>
@@ -2929,7 +3127,7 @@
       <c r="I8" s="26">
         <v>2</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="62" t="s">
         <v>81</v>
       </c>
       <c r="K8" s="32"/>
@@ -3054,7 +3252,7 @@
       <c r="DV8" s="22"/>
     </row>
     <row r="9" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="2"/>
       <c r="C9" s="28" t="s">
         <v>55</v>
@@ -3192,7 +3390,7 @@
       <c r="DV9" s="22"/>
     </row>
     <row r="10" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="2"/>
       <c r="C10" s="28" t="s">
         <v>56</v>
@@ -3330,7 +3528,7 @@
       <c r="DV10" s="22"/>
     </row>
     <row r="11" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="2"/>
       <c r="C11" s="28" t="s">
         <v>55</v>
@@ -3468,7 +3666,7 @@
       <c r="DV11" s="22"/>
     </row>
     <row r="12" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="2"/>
       <c r="C12" s="28" t="s">
         <v>57</v>
@@ -3606,7 +3804,7 @@
       <c r="DV12" s="22"/>
     </row>
     <row r="13" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="2"/>
       <c r="C13" s="28" t="s">
         <v>55</v>
@@ -3744,7 +3942,7 @@
       <c r="DV13" s="22"/>
     </row>
     <row r="14" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2"/>
       <c r="C14" s="28" t="s">
         <v>56</v>
@@ -3882,7 +4080,7 @@
       <c r="DV14" s="22"/>
     </row>
     <row r="15" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="2"/>
       <c r="C15" s="28" t="s">
         <v>55</v>
@@ -4020,7 +4218,7 @@
       <c r="DV15" s="22"/>
     </row>
     <row r="16" spans="1:156" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="2"/>
       <c r="C16" s="28" t="s">
         <v>57</v>
@@ -4158,7 +4356,7 @@
       <c r="DV16" s="22"/>
     </row>
     <row r="17" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="2"/>
       <c r="C17" s="28" t="s">
         <v>55</v>
@@ -4296,7 +4494,7 @@
       <c r="DV17" s="22"/>
     </row>
     <row r="18" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="2"/>
       <c r="C18" s="28" t="s">
         <v>56</v>
@@ -4434,7 +4632,7 @@
       <c r="DV18" s="22"/>
     </row>
     <row r="19" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="2"/>
       <c r="C19" s="28" t="s">
         <v>55</v>
@@ -4571,6 +4769,2768 @@
       <c r="DU19" s="22"/>
       <c r="DV19" s="22"/>
     </row>
+    <row r="21" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="43"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="38"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="26">
+        <v>1</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="30"/>
+      <c r="AA21" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="22"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="23"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="22"/>
+      <c r="AW21" s="22"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="22"/>
+      <c r="BA21" s="22"/>
+      <c r="BB21" s="22"/>
+      <c r="BC21" s="22"/>
+      <c r="BD21" s="22"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="23"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
+      <c r="BL21" s="23"/>
+      <c r="BM21" s="23"/>
+      <c r="BN21" s="22"/>
+      <c r="BO21" s="24"/>
+      <c r="BP21" s="23"/>
+      <c r="BQ21" s="22"/>
+      <c r="BR21" s="22"/>
+      <c r="BS21" s="22"/>
+      <c r="BT21" s="22"/>
+      <c r="BU21" s="22"/>
+      <c r="BV21" s="23"/>
+      <c r="BW21" s="24"/>
+      <c r="BX21" s="22"/>
+      <c r="BY21" s="22"/>
+      <c r="BZ21" s="22"/>
+      <c r="CA21" s="22"/>
+      <c r="CB21" s="22"/>
+      <c r="CC21" s="23"/>
+      <c r="CD21" s="24"/>
+      <c r="CE21" s="22"/>
+      <c r="CF21" s="22"/>
+      <c r="CG21" s="22"/>
+      <c r="CH21" s="22"/>
+      <c r="CI21" s="22"/>
+      <c r="CJ21" s="5"/>
+      <c r="CK21" s="13"/>
+      <c r="CL21" s="22"/>
+      <c r="CM21" s="22"/>
+      <c r="CN21" s="22"/>
+      <c r="CO21" s="22"/>
+      <c r="CP21" s="22"/>
+      <c r="CQ21" s="23"/>
+      <c r="CR21" s="24"/>
+      <c r="CS21" s="23"/>
+      <c r="CT21" s="23"/>
+      <c r="CU21" s="23"/>
+      <c r="CV21" s="22"/>
+      <c r="CW21" s="22"/>
+      <c r="CX21" s="23"/>
+      <c r="CY21" s="24"/>
+      <c r="CZ21" s="22"/>
+      <c r="DA21" s="22"/>
+      <c r="DB21" s="22"/>
+      <c r="DC21" s="22"/>
+      <c r="DD21" s="22"/>
+      <c r="DE21" s="23"/>
+      <c r="DF21" s="24"/>
+      <c r="DG21" s="22"/>
+      <c r="DH21" s="22"/>
+      <c r="DI21" s="22"/>
+      <c r="DJ21" s="22"/>
+      <c r="DK21" s="22"/>
+      <c r="DL21" s="23"/>
+      <c r="DM21" s="24"/>
+      <c r="DN21" s="22"/>
+      <c r="DO21" s="22"/>
+      <c r="DP21" s="22"/>
+      <c r="DQ21" s="22"/>
+      <c r="DR21" s="22"/>
+      <c r="DS21" s="23"/>
+      <c r="DT21" s="24"/>
+      <c r="DU21" s="22"/>
+      <c r="DV21" s="22"/>
+    </row>
+    <row r="22" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="43"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="26">
+        <v>2</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="23"/>
+      <c r="AL22" s="22"/>
+      <c r="AM22" s="22"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="23"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="22"/>
+      <c r="AT22" s="22"/>
+      <c r="AU22" s="22"/>
+      <c r="AV22" s="22"/>
+      <c r="AW22" s="22"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="6"/>
+      <c r="BB22" s="6"/>
+      <c r="BC22" s="6"/>
+      <c r="BD22" s="6"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="23"/>
+      <c r="BG22" s="22"/>
+      <c r="BH22" s="22"/>
+      <c r="BI22" s="22"/>
+      <c r="BJ22" s="22"/>
+      <c r="BK22" s="22"/>
+      <c r="BL22" s="23"/>
+      <c r="BM22" s="23"/>
+      <c r="BN22" s="22"/>
+      <c r="BO22" s="24"/>
+      <c r="BP22" s="23"/>
+      <c r="BQ22" s="22"/>
+      <c r="BR22" s="22"/>
+      <c r="BS22" s="22"/>
+      <c r="BT22" s="22"/>
+      <c r="BU22" s="22"/>
+      <c r="BV22" s="23"/>
+      <c r="BW22" s="24"/>
+      <c r="BX22" s="22"/>
+      <c r="BY22" s="22"/>
+      <c r="BZ22" s="22"/>
+      <c r="CA22" s="22"/>
+      <c r="CB22" s="22"/>
+      <c r="CC22" s="23"/>
+      <c r="CD22" s="24"/>
+      <c r="CE22" s="22"/>
+      <c r="CF22" s="22"/>
+      <c r="CG22" s="22"/>
+      <c r="CH22" s="22"/>
+      <c r="CI22" s="22"/>
+      <c r="CJ22" s="23"/>
+      <c r="CK22" s="24"/>
+      <c r="CL22" s="5"/>
+      <c r="CM22" s="13"/>
+      <c r="CN22" s="22"/>
+      <c r="CO22" s="22"/>
+      <c r="CP22" s="22"/>
+      <c r="CQ22" s="23"/>
+      <c r="CR22" s="24"/>
+      <c r="CS22" s="23"/>
+      <c r="CT22" s="23"/>
+      <c r="CU22" s="23"/>
+      <c r="CV22" s="22"/>
+      <c r="CW22" s="22"/>
+      <c r="CX22" s="23"/>
+      <c r="CY22" s="24"/>
+      <c r="CZ22" s="22"/>
+      <c r="DA22" s="22"/>
+      <c r="DB22" s="22"/>
+      <c r="DC22" s="22"/>
+      <c r="DD22" s="22"/>
+      <c r="DE22" s="23"/>
+      <c r="DF22" s="24"/>
+      <c r="DG22" s="22"/>
+      <c r="DH22" s="22"/>
+      <c r="DI22" s="22"/>
+      <c r="DJ22" s="22"/>
+      <c r="DK22" s="22"/>
+      <c r="DL22" s="23"/>
+      <c r="DM22" s="24"/>
+      <c r="DN22" s="22"/>
+      <c r="DO22" s="22"/>
+      <c r="DP22" s="22"/>
+      <c r="DQ22" s="22"/>
+      <c r="DR22" s="22"/>
+      <c r="DS22" s="23"/>
+      <c r="DT22" s="24"/>
+      <c r="DU22" s="22"/>
+      <c r="DV22" s="22"/>
+    </row>
+    <row r="23" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="43"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="26">
+        <v>2</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="22"/>
+      <c r="AJ23" s="23"/>
+      <c r="AK23" s="23"/>
+      <c r="AL23" s="22"/>
+      <c r="AM23" s="22"/>
+      <c r="AN23" s="22"/>
+      <c r="AO23" s="22"/>
+      <c r="AP23" s="22"/>
+      <c r="AQ23" s="23"/>
+      <c r="AR23" s="23"/>
+      <c r="AS23" s="22"/>
+      <c r="AT23" s="22"/>
+      <c r="AU23" s="22"/>
+      <c r="AV23" s="22"/>
+      <c r="AW23" s="22"/>
+      <c r="AX23" s="23"/>
+      <c r="AY23" s="23"/>
+      <c r="AZ23" s="6"/>
+      <c r="BA23" s="6"/>
+      <c r="BB23" s="6"/>
+      <c r="BC23" s="6"/>
+      <c r="BD23" s="6"/>
+      <c r="BE23" s="23"/>
+      <c r="BF23" s="23"/>
+      <c r="BG23" s="6"/>
+      <c r="BH23" s="6"/>
+      <c r="BI23" s="22"/>
+      <c r="BJ23" s="22"/>
+      <c r="BK23" s="22"/>
+      <c r="BL23" s="23"/>
+      <c r="BM23" s="23"/>
+      <c r="BN23" s="22"/>
+      <c r="BO23" s="24"/>
+      <c r="BP23" s="23"/>
+      <c r="BQ23" s="22"/>
+      <c r="BR23" s="22"/>
+      <c r="BS23" s="22"/>
+      <c r="BT23" s="22"/>
+      <c r="BU23" s="22"/>
+      <c r="BV23" s="23"/>
+      <c r="BW23" s="24"/>
+      <c r="BX23" s="22"/>
+      <c r="BY23" s="22"/>
+      <c r="BZ23" s="22"/>
+      <c r="CA23" s="22"/>
+      <c r="CB23" s="22"/>
+      <c r="CC23" s="23"/>
+      <c r="CD23" s="24"/>
+      <c r="CE23" s="22"/>
+      <c r="CF23" s="22"/>
+      <c r="CG23" s="22"/>
+      <c r="CH23" s="22"/>
+      <c r="CI23" s="22"/>
+      <c r="CJ23" s="23"/>
+      <c r="CK23" s="24"/>
+      <c r="CL23" s="22"/>
+      <c r="CM23" s="5"/>
+      <c r="CN23" s="13"/>
+      <c r="CO23" s="22"/>
+      <c r="CP23" s="22"/>
+      <c r="CQ23" s="23"/>
+      <c r="CR23" s="24"/>
+      <c r="CS23" s="23"/>
+      <c r="CT23" s="23"/>
+      <c r="CU23" s="23"/>
+      <c r="CV23" s="22"/>
+      <c r="CW23" s="22"/>
+      <c r="CX23" s="23"/>
+      <c r="CY23" s="24"/>
+      <c r="CZ23" s="22"/>
+      <c r="DA23" s="22"/>
+      <c r="DB23" s="22"/>
+      <c r="DC23" s="22"/>
+      <c r="DD23" s="22"/>
+      <c r="DE23" s="23"/>
+      <c r="DF23" s="24"/>
+      <c r="DG23" s="22"/>
+      <c r="DH23" s="22"/>
+      <c r="DI23" s="22"/>
+      <c r="DJ23" s="22"/>
+      <c r="DK23" s="22"/>
+      <c r="DL23" s="23"/>
+      <c r="DM23" s="24"/>
+      <c r="DN23" s="22"/>
+      <c r="DO23" s="22"/>
+      <c r="DP23" s="22"/>
+      <c r="DQ23" s="22"/>
+      <c r="DR23" s="22"/>
+      <c r="DS23" s="23"/>
+      <c r="DT23" s="24"/>
+      <c r="DU23" s="22"/>
+      <c r="DV23" s="22"/>
+    </row>
+    <row r="24" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="43"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="26">
+        <v>3</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22"/>
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="23"/>
+      <c r="AK24" s="23"/>
+      <c r="AL24" s="22"/>
+      <c r="AM24" s="22"/>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22"/>
+      <c r="AQ24" s="23"/>
+      <c r="AR24" s="23"/>
+      <c r="AS24" s="22"/>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22"/>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="23"/>
+      <c r="AY24" s="23"/>
+      <c r="AZ24" s="22"/>
+      <c r="BA24" s="22"/>
+      <c r="BB24" s="22"/>
+      <c r="BC24" s="22"/>
+      <c r="BD24" s="22"/>
+      <c r="BE24" s="23"/>
+      <c r="BF24" s="23"/>
+      <c r="BG24" s="22"/>
+      <c r="BH24" s="6"/>
+      <c r="BI24" s="22"/>
+      <c r="BJ24" s="22"/>
+      <c r="BK24" s="22"/>
+      <c r="BL24" s="23"/>
+      <c r="BM24" s="23"/>
+      <c r="BN24" s="22"/>
+      <c r="BO24" s="24"/>
+      <c r="BP24" s="23"/>
+      <c r="BQ24" s="22"/>
+      <c r="BR24" s="22"/>
+      <c r="BS24" s="27"/>
+      <c r="BT24" s="22"/>
+      <c r="BU24" s="22"/>
+      <c r="BV24" s="23"/>
+      <c r="BW24" s="24"/>
+      <c r="BX24" s="22"/>
+      <c r="BY24" s="22"/>
+      <c r="BZ24" s="22"/>
+      <c r="CA24" s="22"/>
+      <c r="CB24" s="22"/>
+      <c r="CC24" s="23"/>
+      <c r="CD24" s="24"/>
+      <c r="CE24" s="22"/>
+      <c r="CF24" s="22"/>
+      <c r="CG24" s="22"/>
+      <c r="CH24" s="22"/>
+      <c r="CI24" s="22"/>
+      <c r="CJ24" s="23"/>
+      <c r="CK24" s="24"/>
+      <c r="CL24" s="22"/>
+      <c r="CM24" s="22"/>
+      <c r="CN24" s="5"/>
+      <c r="CO24" s="13"/>
+      <c r="CP24" s="22"/>
+      <c r="CQ24" s="23"/>
+      <c r="CR24" s="24"/>
+      <c r="CS24" s="23"/>
+      <c r="CT24" s="23"/>
+      <c r="CU24" s="23"/>
+      <c r="CV24" s="22"/>
+      <c r="CW24" s="22"/>
+      <c r="CX24" s="23"/>
+      <c r="CY24" s="24"/>
+      <c r="CZ24" s="22"/>
+      <c r="DA24" s="22"/>
+      <c r="DB24" s="22"/>
+      <c r="DC24" s="22"/>
+      <c r="DD24" s="22"/>
+      <c r="DE24" s="23"/>
+      <c r="DF24" s="24"/>
+      <c r="DG24" s="22"/>
+      <c r="DH24" s="22"/>
+      <c r="DI24" s="22"/>
+      <c r="DJ24" s="22"/>
+      <c r="DK24" s="22"/>
+      <c r="DL24" s="23"/>
+      <c r="DM24" s="24"/>
+      <c r="DN24" s="22"/>
+      <c r="DO24" s="22"/>
+      <c r="DP24" s="22"/>
+      <c r="DQ24" s="22"/>
+      <c r="DR24" s="22"/>
+      <c r="DS24" s="23"/>
+      <c r="DT24" s="24"/>
+      <c r="DU24" s="22"/>
+      <c r="DV24" s="22"/>
+    </row>
+    <row r="25" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="43"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="26">
+        <v>2</v>
+      </c>
+      <c r="J25" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="23"/>
+      <c r="AK25" s="23"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22"/>
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="22"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="22"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="22"/>
+      <c r="BL25" s="23"/>
+      <c r="BM25" s="23"/>
+      <c r="BN25" s="22"/>
+      <c r="BO25" s="24"/>
+      <c r="BP25" s="23"/>
+      <c r="BQ25" s="22"/>
+      <c r="BR25" s="22"/>
+      <c r="BS25" s="22"/>
+      <c r="BT25" s="22"/>
+      <c r="BU25" s="22"/>
+      <c r="BV25" s="23"/>
+      <c r="BW25" s="24"/>
+      <c r="BX25" s="22"/>
+      <c r="BY25" s="22"/>
+      <c r="BZ25" s="22"/>
+      <c r="CA25" s="22"/>
+      <c r="CB25" s="22"/>
+      <c r="CC25" s="23"/>
+      <c r="CD25" s="24"/>
+      <c r="CE25" s="22"/>
+      <c r="CF25" s="22"/>
+      <c r="CG25" s="22"/>
+      <c r="CH25" s="22"/>
+      <c r="CI25" s="22"/>
+      <c r="CJ25" s="5"/>
+      <c r="CK25" s="13"/>
+      <c r="CL25" s="22"/>
+      <c r="CM25" s="22"/>
+      <c r="CN25" s="22"/>
+      <c r="CO25" s="22"/>
+      <c r="CP25" s="22"/>
+      <c r="CQ25" s="23"/>
+      <c r="CR25" s="24"/>
+      <c r="CS25" s="23"/>
+      <c r="CT25" s="23"/>
+      <c r="CU25" s="23"/>
+      <c r="CV25" s="22"/>
+      <c r="CW25" s="22"/>
+      <c r="CX25" s="23"/>
+      <c r="CY25" s="24"/>
+      <c r="CZ25" s="22"/>
+      <c r="DA25" s="22"/>
+      <c r="DB25" s="22"/>
+      <c r="DC25" s="22"/>
+      <c r="DD25" s="22"/>
+      <c r="DE25" s="23"/>
+      <c r="DF25" s="24"/>
+      <c r="DG25" s="22"/>
+      <c r="DH25" s="22"/>
+      <c r="DI25" s="22"/>
+      <c r="DJ25" s="22"/>
+      <c r="DK25" s="22"/>
+      <c r="DL25" s="23"/>
+      <c r="DM25" s="24"/>
+      <c r="DN25" s="22"/>
+      <c r="DO25" s="22"/>
+      <c r="DP25" s="22"/>
+      <c r="DQ25" s="22"/>
+      <c r="DR25" s="22"/>
+      <c r="DS25" s="23"/>
+      <c r="DT25" s="24"/>
+      <c r="DU25" s="22"/>
+      <c r="DV25" s="22"/>
+    </row>
+    <row r="26" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="36"/>
+      <c r="AE26" s="22"/>
+      <c r="AF26" s="22"/>
+      <c r="AG26" s="22"/>
+      <c r="AH26" s="22"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="22"/>
+      <c r="AM26" s="22"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="22"/>
+      <c r="AP26" s="22"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="6"/>
+      <c r="BA26" s="6"/>
+      <c r="BB26" s="6"/>
+      <c r="BC26" s="6"/>
+      <c r="BD26" s="6"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="22"/>
+      <c r="BH26" s="22"/>
+      <c r="BI26" s="22"/>
+      <c r="BJ26" s="22"/>
+      <c r="BK26" s="22"/>
+      <c r="BL26" s="23"/>
+      <c r="BM26" s="23"/>
+      <c r="BN26" s="22"/>
+      <c r="BO26" s="24"/>
+      <c r="BP26" s="23"/>
+      <c r="BQ26" s="22"/>
+      <c r="BR26" s="22"/>
+      <c r="BS26" s="22"/>
+      <c r="BT26" s="22"/>
+      <c r="BU26" s="22"/>
+      <c r="BV26" s="23"/>
+      <c r="BW26" s="24"/>
+      <c r="BX26" s="22"/>
+      <c r="BY26" s="22"/>
+      <c r="BZ26" s="22"/>
+      <c r="CA26" s="22"/>
+      <c r="CB26" s="22"/>
+      <c r="CC26" s="23"/>
+      <c r="CD26" s="24"/>
+      <c r="CE26" s="22"/>
+      <c r="CF26" s="22"/>
+      <c r="CG26" s="22"/>
+      <c r="CH26" s="22"/>
+      <c r="CI26" s="22"/>
+      <c r="CJ26" s="23"/>
+      <c r="CK26" s="24"/>
+      <c r="CL26" s="5"/>
+      <c r="CM26" s="13"/>
+      <c r="CN26" s="22"/>
+      <c r="CO26" s="22"/>
+      <c r="CP26" s="22"/>
+      <c r="CQ26" s="23"/>
+      <c r="CR26" s="24"/>
+      <c r="CS26" s="23"/>
+      <c r="CT26" s="23"/>
+      <c r="CU26" s="23"/>
+      <c r="CV26" s="22"/>
+      <c r="CW26" s="22"/>
+      <c r="CX26" s="23"/>
+      <c r="CY26" s="24"/>
+      <c r="CZ26" s="22"/>
+      <c r="DA26" s="22"/>
+      <c r="DB26" s="22"/>
+      <c r="DC26" s="22"/>
+      <c r="DD26" s="22"/>
+      <c r="DE26" s="23"/>
+      <c r="DF26" s="24"/>
+      <c r="DG26" s="22"/>
+      <c r="DH26" s="22"/>
+      <c r="DI26" s="22"/>
+      <c r="DJ26" s="22"/>
+      <c r="DK26" s="22"/>
+      <c r="DL26" s="23"/>
+      <c r="DM26" s="24"/>
+      <c r="DN26" s="22"/>
+      <c r="DO26" s="22"/>
+      <c r="DP26" s="22"/>
+      <c r="DQ26" s="22"/>
+      <c r="DR26" s="22"/>
+      <c r="DS26" s="23"/>
+      <c r="DT26" s="24"/>
+      <c r="DU26" s="22"/>
+      <c r="DV26" s="22"/>
+    </row>
+    <row r="27" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="43"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="26">
+        <v>3</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="36"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="22"/>
+      <c r="AI27" s="22"/>
+      <c r="AJ27" s="23"/>
+      <c r="AK27" s="23"/>
+      <c r="AL27" s="22"/>
+      <c r="AM27" s="22"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="22"/>
+      <c r="AP27" s="22"/>
+      <c r="AQ27" s="23"/>
+      <c r="AR27" s="23"/>
+      <c r="AS27" s="22"/>
+      <c r="AT27" s="22"/>
+      <c r="AU27" s="22"/>
+      <c r="AV27" s="22"/>
+      <c r="AW27" s="22"/>
+      <c r="AX27" s="23"/>
+      <c r="AY27" s="23"/>
+      <c r="AZ27" s="6"/>
+      <c r="BA27" s="6"/>
+      <c r="BB27" s="6"/>
+      <c r="BC27" s="6"/>
+      <c r="BD27" s="6"/>
+      <c r="BE27" s="23"/>
+      <c r="BF27" s="23"/>
+      <c r="BG27" s="6"/>
+      <c r="BH27" s="6"/>
+      <c r="BI27" s="22"/>
+      <c r="BJ27" s="22"/>
+      <c r="BK27" s="22"/>
+      <c r="BL27" s="23"/>
+      <c r="BM27" s="23"/>
+      <c r="BN27" s="22"/>
+      <c r="BO27" s="24"/>
+      <c r="BP27" s="23"/>
+      <c r="BQ27" s="22"/>
+      <c r="BR27" s="22"/>
+      <c r="BS27" s="22"/>
+      <c r="BT27" s="22"/>
+      <c r="BU27" s="22"/>
+      <c r="BV27" s="23"/>
+      <c r="BW27" s="24"/>
+      <c r="BX27" s="22"/>
+      <c r="BY27" s="22"/>
+      <c r="BZ27" s="22"/>
+      <c r="CA27" s="22"/>
+      <c r="CB27" s="22"/>
+      <c r="CC27" s="23"/>
+      <c r="CD27" s="24"/>
+      <c r="CE27" s="22"/>
+      <c r="CF27" s="22"/>
+      <c r="CG27" s="22"/>
+      <c r="CH27" s="22"/>
+      <c r="CI27" s="22"/>
+      <c r="CJ27" s="23"/>
+      <c r="CK27" s="24"/>
+      <c r="CL27" s="22"/>
+      <c r="CM27" s="5"/>
+      <c r="CN27" s="13"/>
+      <c r="CO27" s="22"/>
+      <c r="CP27" s="22"/>
+      <c r="CQ27" s="23"/>
+      <c r="CR27" s="24"/>
+      <c r="CS27" s="23"/>
+      <c r="CT27" s="23"/>
+      <c r="CU27" s="23"/>
+      <c r="CV27" s="22"/>
+      <c r="CW27" s="22"/>
+      <c r="CX27" s="23"/>
+      <c r="CY27" s="24"/>
+      <c r="CZ27" s="22"/>
+      <c r="DA27" s="22"/>
+      <c r="DB27" s="22"/>
+      <c r="DC27" s="22"/>
+      <c r="DD27" s="22"/>
+      <c r="DE27" s="23"/>
+      <c r="DF27" s="24"/>
+      <c r="DG27" s="22"/>
+      <c r="DH27" s="22"/>
+      <c r="DI27" s="22"/>
+      <c r="DJ27" s="22"/>
+      <c r="DK27" s="22"/>
+      <c r="DL27" s="23"/>
+      <c r="DM27" s="24"/>
+      <c r="DN27" s="22"/>
+      <c r="DO27" s="22"/>
+      <c r="DP27" s="22"/>
+      <c r="DQ27" s="22"/>
+      <c r="DR27" s="22"/>
+      <c r="DS27" s="23"/>
+      <c r="DT27" s="24"/>
+      <c r="DU27" s="22"/>
+      <c r="DV27" s="22"/>
+    </row>
+    <row r="28" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="43"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="26">
+        <v>3</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="22"/>
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="22"/>
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="23"/>
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="23"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="6"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="22"/>
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="22"/>
+      <c r="BO28" s="24"/>
+      <c r="BP28" s="23"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="22"/>
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
+      <c r="BV28" s="23"/>
+      <c r="BW28" s="24"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
+      <c r="BZ28" s="22"/>
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="23"/>
+      <c r="CD28" s="24"/>
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
+      <c r="CH28" s="22"/>
+      <c r="CI28" s="22"/>
+      <c r="CJ28" s="23"/>
+      <c r="CK28" s="24"/>
+      <c r="CL28" s="22"/>
+      <c r="CM28" s="22"/>
+      <c r="CN28" s="5"/>
+      <c r="CO28" s="13"/>
+      <c r="CP28" s="22"/>
+      <c r="CQ28" s="23"/>
+      <c r="CR28" s="24"/>
+      <c r="CS28" s="23"/>
+      <c r="CT28" s="23"/>
+      <c r="CU28" s="23"/>
+      <c r="CV28" s="22"/>
+      <c r="CW28" s="22"/>
+      <c r="CX28" s="23"/>
+      <c r="CY28" s="24"/>
+      <c r="CZ28" s="22"/>
+      <c r="DA28" s="22"/>
+      <c r="DB28" s="22"/>
+      <c r="DC28" s="22"/>
+      <c r="DD28" s="22"/>
+      <c r="DE28" s="23"/>
+      <c r="DF28" s="24"/>
+      <c r="DG28" s="22"/>
+      <c r="DH28" s="22"/>
+      <c r="DI28" s="22"/>
+      <c r="DJ28" s="22"/>
+      <c r="DK28" s="22"/>
+      <c r="DL28" s="23"/>
+      <c r="DM28" s="24"/>
+      <c r="DN28" s="22"/>
+      <c r="DO28" s="22"/>
+      <c r="DP28" s="22"/>
+      <c r="DQ28" s="22"/>
+      <c r="DR28" s="22"/>
+      <c r="DS28" s="23"/>
+      <c r="DT28" s="24"/>
+      <c r="DU28" s="22"/>
+      <c r="DV28" s="22"/>
+    </row>
+    <row r="29" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="43"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="26">
+        <v>2</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="36"/>
+      <c r="AE29" s="22"/>
+      <c r="AF29" s="22"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="23"/>
+      <c r="AK29" s="23"/>
+      <c r="AL29" s="22"/>
+      <c r="AM29" s="22"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="22"/>
+      <c r="AP29" s="22"/>
+      <c r="AQ29" s="23"/>
+      <c r="AR29" s="23"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="23"/>
+      <c r="AY29" s="23"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="23"/>
+      <c r="BF29" s="23"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="23"/>
+      <c r="BM29" s="23"/>
+      <c r="BN29" s="22"/>
+      <c r="BO29" s="24"/>
+      <c r="BP29" s="23"/>
+      <c r="BQ29" s="22"/>
+      <c r="BR29" s="22"/>
+      <c r="BS29" s="22"/>
+      <c r="BT29" s="22"/>
+      <c r="BU29" s="22"/>
+      <c r="BV29" s="23"/>
+      <c r="BW29" s="24"/>
+      <c r="BX29" s="22"/>
+      <c r="BY29" s="22"/>
+      <c r="BZ29" s="22"/>
+      <c r="CA29" s="22"/>
+      <c r="CB29" s="22"/>
+      <c r="CC29" s="23"/>
+      <c r="CD29" s="24"/>
+      <c r="CE29" s="22"/>
+      <c r="CF29" s="22"/>
+      <c r="CG29" s="22"/>
+      <c r="CH29" s="22"/>
+      <c r="CI29" s="22"/>
+      <c r="CJ29" s="5"/>
+      <c r="CK29" s="13"/>
+      <c r="CL29" s="22"/>
+      <c r="CM29" s="22"/>
+      <c r="CN29" s="22"/>
+      <c r="CO29" s="22"/>
+      <c r="CP29" s="22"/>
+      <c r="CQ29" s="23"/>
+      <c r="CR29" s="24"/>
+      <c r="CS29" s="23"/>
+      <c r="CT29" s="23"/>
+      <c r="CU29" s="23"/>
+      <c r="CV29" s="22"/>
+      <c r="CW29" s="22"/>
+      <c r="CX29" s="23"/>
+      <c r="CY29" s="24"/>
+      <c r="CZ29" s="22"/>
+      <c r="DA29" s="22"/>
+      <c r="DB29" s="22"/>
+      <c r="DC29" s="22"/>
+      <c r="DD29" s="22"/>
+      <c r="DE29" s="23"/>
+      <c r="DF29" s="24"/>
+      <c r="DG29" s="22"/>
+      <c r="DH29" s="22"/>
+      <c r="DI29" s="22"/>
+      <c r="DJ29" s="22"/>
+      <c r="DK29" s="22"/>
+      <c r="DL29" s="23"/>
+      <c r="DM29" s="24"/>
+      <c r="DN29" s="22"/>
+      <c r="DO29" s="22"/>
+      <c r="DP29" s="22"/>
+      <c r="DQ29" s="22"/>
+      <c r="DR29" s="22"/>
+      <c r="DS29" s="23"/>
+      <c r="DT29" s="24"/>
+      <c r="DU29" s="22"/>
+      <c r="DV29" s="22"/>
+    </row>
+    <row r="30" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="43"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="26">
+        <v>1</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="36"/>
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="22"/>
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="23"/>
+      <c r="AL30" s="22"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="22"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="23"/>
+      <c r="AY30" s="23"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="6"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="6"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="23"/>
+      <c r="BF30" s="23"/>
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="22"/>
+      <c r="BJ30" s="22"/>
+      <c r="BK30" s="22"/>
+      <c r="BL30" s="23"/>
+      <c r="BM30" s="23"/>
+      <c r="BN30" s="22"/>
+      <c r="BO30" s="24"/>
+      <c r="BP30" s="23"/>
+      <c r="BQ30" s="22"/>
+      <c r="BR30" s="22"/>
+      <c r="BS30" s="22"/>
+      <c r="BT30" s="22"/>
+      <c r="BU30" s="22"/>
+      <c r="BV30" s="23"/>
+      <c r="BW30" s="24"/>
+      <c r="BX30" s="22"/>
+      <c r="BY30" s="22"/>
+      <c r="BZ30" s="22"/>
+      <c r="CA30" s="22"/>
+      <c r="CB30" s="22"/>
+      <c r="CC30" s="23"/>
+      <c r="CD30" s="24"/>
+      <c r="CE30" s="22"/>
+      <c r="CF30" s="22"/>
+      <c r="CG30" s="22"/>
+      <c r="CH30" s="22"/>
+      <c r="CI30" s="22"/>
+      <c r="CJ30" s="23"/>
+      <c r="CK30" s="24"/>
+      <c r="CL30" s="5"/>
+      <c r="CM30" s="13"/>
+      <c r="CN30" s="22"/>
+      <c r="CO30" s="22"/>
+      <c r="CP30" s="22"/>
+      <c r="CQ30" s="23"/>
+      <c r="CR30" s="24"/>
+      <c r="CS30" s="23"/>
+      <c r="CT30" s="23"/>
+      <c r="CU30" s="23"/>
+      <c r="CV30" s="22"/>
+      <c r="CW30" s="22"/>
+      <c r="CX30" s="23"/>
+      <c r="CY30" s="24"/>
+      <c r="CZ30" s="22"/>
+      <c r="DA30" s="22"/>
+      <c r="DB30" s="22"/>
+      <c r="DC30" s="22"/>
+      <c r="DD30" s="22"/>
+      <c r="DE30" s="23"/>
+      <c r="DF30" s="24"/>
+      <c r="DG30" s="22"/>
+      <c r="DH30" s="22"/>
+      <c r="DI30" s="22"/>
+      <c r="DJ30" s="22"/>
+      <c r="DK30" s="22"/>
+      <c r="DL30" s="23"/>
+      <c r="DM30" s="24"/>
+      <c r="DN30" s="22"/>
+      <c r="DO30" s="22"/>
+      <c r="DP30" s="22"/>
+      <c r="DQ30" s="22"/>
+      <c r="DR30" s="22"/>
+      <c r="DS30" s="23"/>
+      <c r="DT30" s="24"/>
+      <c r="DU30" s="22"/>
+      <c r="DV30" s="22"/>
+    </row>
+    <row r="31" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="43"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="26">
+        <v>2</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="30"/>
+      <c r="AA31" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="36"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="22"/>
+      <c r="AI31" s="22"/>
+      <c r="AJ31" s="23"/>
+      <c r="AK31" s="23"/>
+      <c r="AL31" s="22"/>
+      <c r="AM31" s="22"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="22"/>
+      <c r="AP31" s="22"/>
+      <c r="AQ31" s="23"/>
+      <c r="AR31" s="23"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="23"/>
+      <c r="AY31" s="23"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="23"/>
+      <c r="BF31" s="23"/>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
+      <c r="BI31" s="22"/>
+      <c r="BJ31" s="22"/>
+      <c r="BK31" s="22"/>
+      <c r="BL31" s="23"/>
+      <c r="BM31" s="23"/>
+      <c r="BN31" s="22"/>
+      <c r="BO31" s="24"/>
+      <c r="BP31" s="23"/>
+      <c r="BQ31" s="22"/>
+      <c r="BR31" s="22"/>
+      <c r="BS31" s="22"/>
+      <c r="BT31" s="22"/>
+      <c r="BU31" s="22"/>
+      <c r="BV31" s="23"/>
+      <c r="BW31" s="24"/>
+      <c r="BX31" s="22"/>
+      <c r="BY31" s="22"/>
+      <c r="BZ31" s="22"/>
+      <c r="CA31" s="22"/>
+      <c r="CB31" s="22"/>
+      <c r="CC31" s="23"/>
+      <c r="CD31" s="24"/>
+      <c r="CE31" s="22"/>
+      <c r="CF31" s="22"/>
+      <c r="CG31" s="22"/>
+      <c r="CH31" s="22"/>
+      <c r="CI31" s="22"/>
+      <c r="CJ31" s="23"/>
+      <c r="CK31" s="24"/>
+      <c r="CL31" s="22"/>
+      <c r="CM31" s="5"/>
+      <c r="CN31" s="13"/>
+      <c r="CO31" s="22"/>
+      <c r="CP31" s="22"/>
+      <c r="CQ31" s="23"/>
+      <c r="CR31" s="24"/>
+      <c r="CS31" s="23"/>
+      <c r="CT31" s="23"/>
+      <c r="CU31" s="23"/>
+      <c r="CV31" s="22"/>
+      <c r="CW31" s="22"/>
+      <c r="CX31" s="23"/>
+      <c r="CY31" s="24"/>
+      <c r="CZ31" s="22"/>
+      <c r="DA31" s="22"/>
+      <c r="DB31" s="22"/>
+      <c r="DC31" s="22"/>
+      <c r="DD31" s="22"/>
+      <c r="DE31" s="23"/>
+      <c r="DF31" s="24"/>
+      <c r="DG31" s="22"/>
+      <c r="DH31" s="22"/>
+      <c r="DI31" s="22"/>
+      <c r="DJ31" s="22"/>
+      <c r="DK31" s="22"/>
+      <c r="DL31" s="23"/>
+      <c r="DM31" s="24"/>
+      <c r="DN31" s="22"/>
+      <c r="DO31" s="22"/>
+      <c r="DP31" s="22"/>
+      <c r="DQ31" s="22"/>
+      <c r="DR31" s="22"/>
+      <c r="DS31" s="23"/>
+      <c r="DT31" s="24"/>
+      <c r="DU31" s="22"/>
+      <c r="DV31" s="22"/>
+    </row>
+    <row r="32" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="43"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="26">
+        <v>3</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="23"/>
+      <c r="AK32" s="23"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22"/>
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="22"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="22"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22"/>
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="22"/>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23"/>
+      <c r="BG32" s="22"/>
+      <c r="BH32" s="6"/>
+      <c r="BI32" s="22"/>
+      <c r="BJ32" s="22"/>
+      <c r="BK32" s="22"/>
+      <c r="BL32" s="23"/>
+      <c r="BM32" s="23"/>
+      <c r="BN32" s="22"/>
+      <c r="BO32" s="24"/>
+      <c r="BP32" s="23"/>
+      <c r="BQ32" s="22"/>
+      <c r="BR32" s="22"/>
+      <c r="BS32" s="22"/>
+      <c r="BT32" s="22"/>
+      <c r="BU32" s="22"/>
+      <c r="BV32" s="23"/>
+      <c r="BW32" s="24"/>
+      <c r="BX32" s="22"/>
+      <c r="BY32" s="22"/>
+      <c r="BZ32" s="22"/>
+      <c r="CA32" s="22"/>
+      <c r="CB32" s="22"/>
+      <c r="CC32" s="23"/>
+      <c r="CD32" s="24"/>
+      <c r="CE32" s="22"/>
+      <c r="CF32" s="22"/>
+      <c r="CG32" s="22"/>
+      <c r="CH32" s="22"/>
+      <c r="CI32" s="22"/>
+      <c r="CJ32" s="23"/>
+      <c r="CK32" s="24"/>
+      <c r="CL32" s="22"/>
+      <c r="CM32" s="22"/>
+      <c r="CN32" s="5"/>
+      <c r="CO32" s="13"/>
+      <c r="CP32" s="22"/>
+      <c r="CQ32" s="23"/>
+      <c r="CR32" s="24"/>
+      <c r="CS32" s="23"/>
+      <c r="CT32" s="23"/>
+      <c r="CU32" s="23"/>
+      <c r="CV32" s="22"/>
+      <c r="CW32" s="22"/>
+      <c r="CX32" s="23"/>
+      <c r="CY32" s="24"/>
+      <c r="CZ32" s="22"/>
+      <c r="DA32" s="22"/>
+      <c r="DB32" s="22"/>
+      <c r="DC32" s="22"/>
+      <c r="DD32" s="22"/>
+      <c r="DE32" s="23"/>
+      <c r="DF32" s="24"/>
+      <c r="DG32" s="22"/>
+      <c r="DH32" s="22"/>
+      <c r="DI32" s="22"/>
+      <c r="DJ32" s="22"/>
+      <c r="DK32" s="22"/>
+      <c r="DL32" s="23"/>
+      <c r="DM32" s="24"/>
+      <c r="DN32" s="22"/>
+      <c r="DO32" s="22"/>
+      <c r="DP32" s="22"/>
+      <c r="DQ32" s="22"/>
+      <c r="DR32" s="22"/>
+      <c r="DS32" s="23"/>
+      <c r="DT32" s="24"/>
+      <c r="DU32" s="22"/>
+      <c r="DV32" s="22"/>
+    </row>
+    <row r="33" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="43"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="26">
+        <v>2</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="22"/>
+      <c r="AM33" s="22"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="22"/>
+      <c r="AP33" s="22"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="22"/>
+      <c r="AT33" s="22"/>
+      <c r="AU33" s="22"/>
+      <c r="AV33" s="22"/>
+      <c r="AW33" s="22"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="22"/>
+      <c r="BA33" s="22"/>
+      <c r="BB33" s="22"/>
+      <c r="BC33" s="22"/>
+      <c r="BD33" s="22"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="22"/>
+      <c r="BH33" s="22"/>
+      <c r="BI33" s="22"/>
+      <c r="BJ33" s="22"/>
+      <c r="BK33" s="22"/>
+      <c r="BL33" s="23"/>
+      <c r="BM33" s="23"/>
+      <c r="BN33" s="22"/>
+      <c r="BO33" s="24"/>
+      <c r="BP33" s="23"/>
+      <c r="BQ33" s="22"/>
+      <c r="BR33" s="22"/>
+      <c r="BS33" s="22"/>
+      <c r="BT33" s="22"/>
+      <c r="BU33" s="22"/>
+      <c r="BV33" s="23"/>
+      <c r="BW33" s="24"/>
+      <c r="BX33" s="22"/>
+      <c r="BY33" s="22"/>
+      <c r="BZ33" s="22"/>
+      <c r="CA33" s="22"/>
+      <c r="CB33" s="22"/>
+      <c r="CC33" s="23"/>
+      <c r="CD33" s="24"/>
+      <c r="CE33" s="22"/>
+      <c r="CF33" s="22"/>
+      <c r="CG33" s="22"/>
+      <c r="CH33" s="22"/>
+      <c r="CI33" s="22"/>
+      <c r="CJ33" s="5"/>
+      <c r="CK33" s="13"/>
+      <c r="CL33" s="22"/>
+      <c r="CM33" s="22"/>
+      <c r="CN33" s="22"/>
+      <c r="CO33" s="22"/>
+      <c r="CP33" s="22"/>
+      <c r="CQ33" s="23"/>
+      <c r="CR33" s="24"/>
+      <c r="CS33" s="23"/>
+      <c r="CT33" s="23"/>
+      <c r="CU33" s="23"/>
+      <c r="CV33" s="22"/>
+      <c r="CW33" s="22"/>
+      <c r="CX33" s="23"/>
+      <c r="CY33" s="24"/>
+      <c r="CZ33" s="22"/>
+      <c r="DA33" s="22"/>
+      <c r="DB33" s="22"/>
+      <c r="DC33" s="22"/>
+      <c r="DD33" s="22"/>
+      <c r="DE33" s="23"/>
+      <c r="DF33" s="24"/>
+      <c r="DG33" s="22"/>
+      <c r="DH33" s="22"/>
+      <c r="DI33" s="22"/>
+      <c r="DJ33" s="22"/>
+      <c r="DK33" s="22"/>
+      <c r="DL33" s="23"/>
+      <c r="DM33" s="24"/>
+      <c r="DN33" s="22"/>
+      <c r="DO33" s="22"/>
+      <c r="DP33" s="22"/>
+      <c r="DQ33" s="22"/>
+      <c r="DR33" s="22"/>
+      <c r="DS33" s="23"/>
+      <c r="DT33" s="24"/>
+      <c r="DU33" s="22"/>
+      <c r="DV33" s="22"/>
+    </row>
+    <row r="34" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="43"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="26">
+        <v>1</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="22"/>
+      <c r="AF34" s="22"/>
+      <c r="AG34" s="22"/>
+      <c r="AH34" s="22"/>
+      <c r="AI34" s="22"/>
+      <c r="AJ34" s="23"/>
+      <c r="AK34" s="23"/>
+      <c r="AL34" s="22"/>
+      <c r="AM34" s="22"/>
+      <c r="AN34" s="22"/>
+      <c r="AO34" s="22"/>
+      <c r="AP34" s="22"/>
+      <c r="AQ34" s="23"/>
+      <c r="AR34" s="23"/>
+      <c r="AS34" s="22"/>
+      <c r="AT34" s="22"/>
+      <c r="AU34" s="22"/>
+      <c r="AV34" s="22"/>
+      <c r="AW34" s="22"/>
+      <c r="AX34" s="23"/>
+      <c r="AY34" s="23"/>
+      <c r="AZ34" s="6"/>
+      <c r="BA34" s="6"/>
+      <c r="BB34" s="6"/>
+      <c r="BC34" s="6"/>
+      <c r="BD34" s="6"/>
+      <c r="BE34" s="23"/>
+      <c r="BF34" s="23"/>
+      <c r="BG34" s="22"/>
+      <c r="BH34" s="22"/>
+      <c r="BI34" s="22"/>
+      <c r="BJ34" s="22"/>
+      <c r="BK34" s="22"/>
+      <c r="BL34" s="23"/>
+      <c r="BM34" s="23"/>
+      <c r="BN34" s="22"/>
+      <c r="BO34" s="24"/>
+      <c r="BP34" s="23"/>
+      <c r="BQ34" s="22"/>
+      <c r="BR34" s="22"/>
+      <c r="BS34" s="22"/>
+      <c r="BT34" s="22"/>
+      <c r="BU34" s="22"/>
+      <c r="BV34" s="23"/>
+      <c r="BW34" s="24"/>
+      <c r="BX34" s="22"/>
+      <c r="BY34" s="22"/>
+      <c r="BZ34" s="22"/>
+      <c r="CA34" s="22"/>
+      <c r="CB34" s="22"/>
+      <c r="CC34" s="23"/>
+      <c r="CD34" s="24"/>
+      <c r="CE34" s="22"/>
+      <c r="CF34" s="22"/>
+      <c r="CG34" s="22"/>
+      <c r="CH34" s="22"/>
+      <c r="CI34" s="22"/>
+      <c r="CJ34" s="23"/>
+      <c r="CK34" s="24"/>
+      <c r="CL34" s="5"/>
+      <c r="CM34" s="13"/>
+      <c r="CN34" s="22"/>
+      <c r="CO34" s="22"/>
+      <c r="CP34" s="22"/>
+      <c r="CQ34" s="23"/>
+      <c r="CR34" s="24"/>
+      <c r="CS34" s="23"/>
+      <c r="CT34" s="23"/>
+      <c r="CU34" s="23"/>
+      <c r="CV34" s="22"/>
+      <c r="CW34" s="22"/>
+      <c r="CX34" s="23"/>
+      <c r="CY34" s="24"/>
+      <c r="CZ34" s="22"/>
+      <c r="DA34" s="22"/>
+      <c r="DB34" s="22"/>
+      <c r="DC34" s="22"/>
+      <c r="DD34" s="22"/>
+      <c r="DE34" s="23"/>
+      <c r="DF34" s="24"/>
+      <c r="DG34" s="22"/>
+      <c r="DH34" s="22"/>
+      <c r="DI34" s="22"/>
+      <c r="DJ34" s="22"/>
+      <c r="DK34" s="22"/>
+      <c r="DL34" s="23"/>
+      <c r="DM34" s="24"/>
+      <c r="DN34" s="22"/>
+      <c r="DO34" s="22"/>
+      <c r="DP34" s="22"/>
+      <c r="DQ34" s="22"/>
+      <c r="DR34" s="22"/>
+      <c r="DS34" s="23"/>
+      <c r="DT34" s="24"/>
+      <c r="DU34" s="22"/>
+      <c r="DV34" s="22"/>
+    </row>
+    <row r="35" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="43"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="26">
+        <v>2</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="30"/>
+      <c r="AA35" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" s="22"/>
+      <c r="AH35" s="22"/>
+      <c r="AI35" s="22"/>
+      <c r="AJ35" s="23"/>
+      <c r="AK35" s="23"/>
+      <c r="AL35" s="22"/>
+      <c r="AM35" s="22"/>
+      <c r="AN35" s="22"/>
+      <c r="AO35" s="22"/>
+      <c r="AP35" s="22"/>
+      <c r="AQ35" s="23"/>
+      <c r="AR35" s="23"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="22"/>
+      <c r="AU35" s="22"/>
+      <c r="AV35" s="22"/>
+      <c r="AW35" s="22"/>
+      <c r="AX35" s="23"/>
+      <c r="AY35" s="23"/>
+      <c r="AZ35" s="6"/>
+      <c r="BA35" s="6"/>
+      <c r="BB35" s="6"/>
+      <c r="BC35" s="6"/>
+      <c r="BD35" s="6"/>
+      <c r="BE35" s="23"/>
+      <c r="BF35" s="23"/>
+      <c r="BG35" s="6"/>
+      <c r="BH35" s="6"/>
+      <c r="BI35" s="22"/>
+      <c r="BJ35" s="22"/>
+      <c r="BK35" s="22"/>
+      <c r="BL35" s="23"/>
+      <c r="BM35" s="23"/>
+      <c r="BN35" s="22"/>
+      <c r="BO35" s="24"/>
+      <c r="BP35" s="23"/>
+      <c r="BQ35" s="22"/>
+      <c r="BR35" s="22"/>
+      <c r="BS35" s="22"/>
+      <c r="BT35" s="22"/>
+      <c r="BU35" s="22"/>
+      <c r="BV35" s="23"/>
+      <c r="BW35" s="24"/>
+      <c r="BX35" s="22"/>
+      <c r="BY35" s="22"/>
+      <c r="BZ35" s="22"/>
+      <c r="CA35" s="22"/>
+      <c r="CB35" s="22"/>
+      <c r="CC35" s="23"/>
+      <c r="CD35" s="24"/>
+      <c r="CE35" s="22"/>
+      <c r="CF35" s="22"/>
+      <c r="CG35" s="22"/>
+      <c r="CH35" s="22"/>
+      <c r="CI35" s="22"/>
+      <c r="CJ35" s="23"/>
+      <c r="CK35" s="24"/>
+      <c r="CL35" s="22"/>
+      <c r="CM35" s="5"/>
+      <c r="CN35" s="13"/>
+      <c r="CO35" s="22"/>
+      <c r="CP35" s="22"/>
+      <c r="CQ35" s="23"/>
+      <c r="CR35" s="24"/>
+      <c r="CS35" s="23"/>
+      <c r="CT35" s="23"/>
+      <c r="CU35" s="23"/>
+      <c r="CV35" s="22"/>
+      <c r="CW35" s="22"/>
+      <c r="CX35" s="23"/>
+      <c r="CY35" s="24"/>
+      <c r="CZ35" s="22"/>
+      <c r="DA35" s="22"/>
+      <c r="DB35" s="22"/>
+      <c r="DC35" s="22"/>
+      <c r="DD35" s="22"/>
+      <c r="DE35" s="23"/>
+      <c r="DF35" s="24"/>
+      <c r="DG35" s="22"/>
+      <c r="DH35" s="22"/>
+      <c r="DI35" s="22"/>
+      <c r="DJ35" s="22"/>
+      <c r="DK35" s="22"/>
+      <c r="DL35" s="23"/>
+      <c r="DM35" s="24"/>
+      <c r="DN35" s="22"/>
+      <c r="DO35" s="22"/>
+      <c r="DP35" s="22"/>
+      <c r="DQ35" s="22"/>
+      <c r="DR35" s="22"/>
+      <c r="DS35" s="23"/>
+      <c r="DT35" s="24"/>
+      <c r="DU35" s="22"/>
+      <c r="DV35" s="22"/>
+    </row>
+    <row r="36" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="43"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="26">
+        <v>2</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="22"/>
+      <c r="AJ36" s="23"/>
+      <c r="AK36" s="23"/>
+      <c r="AL36" s="22"/>
+      <c r="AM36" s="22"/>
+      <c r="AN36" s="22"/>
+      <c r="AO36" s="22"/>
+      <c r="AP36" s="22"/>
+      <c r="AQ36" s="23"/>
+      <c r="AR36" s="23"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AW36" s="22"/>
+      <c r="AX36" s="23"/>
+      <c r="AY36" s="23"/>
+      <c r="AZ36" s="22"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
+      <c r="BC36" s="22"/>
+      <c r="BD36" s="22"/>
+      <c r="BE36" s="23"/>
+      <c r="BF36" s="23"/>
+      <c r="BG36" s="22"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="22"/>
+      <c r="BJ36" s="22"/>
+      <c r="BK36" s="22"/>
+      <c r="BL36" s="23"/>
+      <c r="BM36" s="23"/>
+      <c r="BN36" s="22"/>
+      <c r="BO36" s="24"/>
+      <c r="BP36" s="23"/>
+      <c r="BQ36" s="22"/>
+      <c r="BR36" s="22"/>
+      <c r="BS36" s="22"/>
+      <c r="BT36" s="22"/>
+      <c r="BU36" s="22"/>
+      <c r="BV36" s="23"/>
+      <c r="BW36" s="24"/>
+      <c r="BX36" s="22"/>
+      <c r="BY36" s="22"/>
+      <c r="BZ36" s="22"/>
+      <c r="CA36" s="22"/>
+      <c r="CB36" s="22"/>
+      <c r="CC36" s="23"/>
+      <c r="CD36" s="24"/>
+      <c r="CE36" s="22"/>
+      <c r="CF36" s="22"/>
+      <c r="CG36" s="22"/>
+      <c r="CH36" s="22"/>
+      <c r="CI36" s="22"/>
+      <c r="CJ36" s="23"/>
+      <c r="CK36" s="24"/>
+      <c r="CL36" s="22"/>
+      <c r="CM36" s="22"/>
+      <c r="CN36" s="5"/>
+      <c r="CO36" s="13"/>
+      <c r="CP36" s="22"/>
+      <c r="CQ36" s="23"/>
+      <c r="CR36" s="24"/>
+      <c r="CS36" s="23"/>
+      <c r="CT36" s="23"/>
+      <c r="CU36" s="23"/>
+      <c r="CV36" s="22"/>
+      <c r="CW36" s="22"/>
+      <c r="CX36" s="23"/>
+      <c r="CY36" s="24"/>
+      <c r="CZ36" s="22"/>
+      <c r="DA36" s="22"/>
+      <c r="DB36" s="22"/>
+      <c r="DC36" s="22"/>
+      <c r="DD36" s="22"/>
+      <c r="DE36" s="23"/>
+      <c r="DF36" s="24"/>
+      <c r="DG36" s="22"/>
+      <c r="DH36" s="22"/>
+      <c r="DI36" s="22"/>
+      <c r="DJ36" s="22"/>
+      <c r="DK36" s="22"/>
+      <c r="DL36" s="23"/>
+      <c r="DM36" s="24"/>
+      <c r="DN36" s="22"/>
+      <c r="DO36" s="22"/>
+      <c r="DP36" s="22"/>
+      <c r="DQ36" s="22"/>
+      <c r="DR36" s="22"/>
+      <c r="DS36" s="23"/>
+      <c r="DT36" s="24"/>
+      <c r="DU36" s="22"/>
+      <c r="DV36" s="22"/>
+    </row>
+    <row r="37" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="43"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="26">
+        <v>1</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="30"/>
+      <c r="AA37" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="22"/>
+      <c r="AF37" s="22"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AJ37" s="23"/>
+      <c r="AK37" s="23"/>
+      <c r="AL37" s="22"/>
+      <c r="AM37" s="22"/>
+      <c r="AN37" s="22"/>
+      <c r="AO37" s="22"/>
+      <c r="AP37" s="22"/>
+      <c r="AQ37" s="23"/>
+      <c r="AR37" s="23"/>
+      <c r="AS37" s="22"/>
+      <c r="AT37" s="22"/>
+      <c r="AU37" s="22"/>
+      <c r="AV37" s="22"/>
+      <c r="AW37" s="22"/>
+      <c r="AX37" s="23"/>
+      <c r="AY37" s="23"/>
+      <c r="AZ37" s="22"/>
+      <c r="BA37" s="22"/>
+      <c r="BB37" s="22"/>
+      <c r="BC37" s="22"/>
+      <c r="BD37" s="22"/>
+      <c r="BE37" s="23"/>
+      <c r="BF37" s="23"/>
+      <c r="BG37" s="22"/>
+      <c r="BH37" s="22"/>
+      <c r="BI37" s="22"/>
+      <c r="BJ37" s="22"/>
+      <c r="BK37" s="22"/>
+      <c r="BL37" s="23"/>
+      <c r="BM37" s="23"/>
+      <c r="BN37" s="22"/>
+      <c r="BO37" s="24"/>
+      <c r="BP37" s="23"/>
+      <c r="BQ37" s="22"/>
+      <c r="BR37" s="22"/>
+      <c r="BS37" s="22"/>
+      <c r="BT37" s="22"/>
+      <c r="BU37" s="22"/>
+      <c r="BV37" s="23"/>
+      <c r="BW37" s="24"/>
+      <c r="BX37" s="22"/>
+      <c r="BY37" s="22"/>
+      <c r="BZ37" s="22"/>
+      <c r="CA37" s="22"/>
+      <c r="CB37" s="22"/>
+      <c r="CC37" s="23"/>
+      <c r="CD37" s="24"/>
+      <c r="CE37" s="22"/>
+      <c r="CF37" s="22"/>
+      <c r="CG37" s="22"/>
+      <c r="CH37" s="22"/>
+      <c r="CI37" s="22"/>
+      <c r="CJ37" s="5"/>
+      <c r="CK37" s="13"/>
+      <c r="CL37" s="22"/>
+      <c r="CM37" s="22"/>
+      <c r="CN37" s="22"/>
+      <c r="CO37" s="22"/>
+      <c r="CP37" s="22"/>
+      <c r="CQ37" s="23"/>
+      <c r="CR37" s="24"/>
+      <c r="CS37" s="23"/>
+      <c r="CT37" s="23"/>
+      <c r="CU37" s="23"/>
+      <c r="CV37" s="22"/>
+      <c r="CW37" s="22"/>
+      <c r="CX37" s="23"/>
+      <c r="CY37" s="24"/>
+      <c r="CZ37" s="22"/>
+      <c r="DA37" s="22"/>
+      <c r="DB37" s="22"/>
+      <c r="DC37" s="22"/>
+      <c r="DD37" s="22"/>
+      <c r="DE37" s="23"/>
+      <c r="DF37" s="24"/>
+      <c r="DG37" s="22"/>
+      <c r="DH37" s="22"/>
+      <c r="DI37" s="22"/>
+      <c r="DJ37" s="22"/>
+      <c r="DK37" s="22"/>
+      <c r="DL37" s="23"/>
+      <c r="DM37" s="24"/>
+      <c r="DN37" s="22"/>
+      <c r="DO37" s="22"/>
+      <c r="DP37" s="22"/>
+      <c r="DQ37" s="22"/>
+      <c r="DR37" s="22"/>
+      <c r="DS37" s="23"/>
+      <c r="DT37" s="24"/>
+      <c r="DU37" s="22"/>
+      <c r="DV37" s="22"/>
+    </row>
+    <row r="38" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="43"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="26">
+        <v>2</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="23"/>
+      <c r="AK38" s="23"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+      <c r="AO38" s="22"/>
+      <c r="AP38" s="22"/>
+      <c r="AQ38" s="23"/>
+      <c r="AR38" s="23"/>
+      <c r="AS38" s="22"/>
+      <c r="AT38" s="22"/>
+      <c r="AU38" s="22"/>
+      <c r="AV38" s="22"/>
+      <c r="AW38" s="22"/>
+      <c r="AX38" s="23"/>
+      <c r="AY38" s="23"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="23"/>
+      <c r="BF38" s="23"/>
+      <c r="BG38" s="22"/>
+      <c r="BH38" s="22"/>
+      <c r="BI38" s="22"/>
+      <c r="BJ38" s="22"/>
+      <c r="BK38" s="22"/>
+      <c r="BL38" s="23"/>
+      <c r="BM38" s="23"/>
+      <c r="BN38" s="22"/>
+      <c r="BO38" s="24"/>
+      <c r="BP38" s="23"/>
+      <c r="BQ38" s="22"/>
+      <c r="BR38" s="22"/>
+      <c r="BS38" s="22"/>
+      <c r="BT38" s="22"/>
+      <c r="BU38" s="22"/>
+      <c r="BV38" s="23"/>
+      <c r="BW38" s="24"/>
+      <c r="BX38" s="22"/>
+      <c r="BY38" s="22"/>
+      <c r="BZ38" s="22"/>
+      <c r="CA38" s="22"/>
+      <c r="CB38" s="22"/>
+      <c r="CC38" s="23"/>
+      <c r="CD38" s="24"/>
+      <c r="CE38" s="22"/>
+      <c r="CF38" s="22"/>
+      <c r="CG38" s="22"/>
+      <c r="CH38" s="22"/>
+      <c r="CI38" s="22"/>
+      <c r="CJ38" s="23"/>
+      <c r="CK38" s="24"/>
+      <c r="CL38" s="5"/>
+      <c r="CM38" s="13"/>
+      <c r="CN38" s="22"/>
+      <c r="CO38" s="22"/>
+      <c r="CP38" s="22"/>
+      <c r="CQ38" s="23"/>
+      <c r="CR38" s="24"/>
+      <c r="CS38" s="23"/>
+      <c r="CT38" s="23"/>
+      <c r="CU38" s="23"/>
+      <c r="CV38" s="22"/>
+      <c r="CW38" s="22"/>
+      <c r="CX38" s="23"/>
+      <c r="CY38" s="24"/>
+      <c r="CZ38" s="22"/>
+      <c r="DA38" s="22"/>
+      <c r="DB38" s="22"/>
+      <c r="DC38" s="22"/>
+      <c r="DD38" s="22"/>
+      <c r="DE38" s="23"/>
+      <c r="DF38" s="24"/>
+      <c r="DG38" s="22"/>
+      <c r="DH38" s="22"/>
+      <c r="DI38" s="22"/>
+      <c r="DJ38" s="22"/>
+      <c r="DK38" s="22"/>
+      <c r="DL38" s="23"/>
+      <c r="DM38" s="24"/>
+      <c r="DN38" s="22"/>
+      <c r="DO38" s="22"/>
+      <c r="DP38" s="22"/>
+      <c r="DQ38" s="22"/>
+      <c r="DR38" s="22"/>
+      <c r="DS38" s="23"/>
+      <c r="DT38" s="24"/>
+      <c r="DU38" s="22"/>
+      <c r="DV38" s="22"/>
+    </row>
+    <row r="39" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="43"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="26">
+        <v>2</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="22"/>
+      <c r="AF39" s="22"/>
+      <c r="AG39" s="22"/>
+      <c r="AH39" s="22"/>
+      <c r="AI39" s="22"/>
+      <c r="AJ39" s="23"/>
+      <c r="AK39" s="23"/>
+      <c r="AL39" s="22"/>
+      <c r="AM39" s="22"/>
+      <c r="AN39" s="22"/>
+      <c r="AO39" s="22"/>
+      <c r="AP39" s="22"/>
+      <c r="AQ39" s="23"/>
+      <c r="AR39" s="23"/>
+      <c r="AS39" s="22"/>
+      <c r="AT39" s="22"/>
+      <c r="AU39" s="22"/>
+      <c r="AV39" s="22"/>
+      <c r="AW39" s="22"/>
+      <c r="AX39" s="23"/>
+      <c r="AY39" s="23"/>
+      <c r="AZ39" s="6"/>
+      <c r="BA39" s="6"/>
+      <c r="BB39" s="6"/>
+      <c r="BC39" s="6"/>
+      <c r="BD39" s="6"/>
+      <c r="BE39" s="23"/>
+      <c r="BF39" s="23"/>
+      <c r="BG39" s="6"/>
+      <c r="BH39" s="6"/>
+      <c r="BI39" s="22"/>
+      <c r="BJ39" s="22"/>
+      <c r="BK39" s="22"/>
+      <c r="BL39" s="23"/>
+      <c r="BM39" s="23"/>
+      <c r="BN39" s="22"/>
+      <c r="BO39" s="24"/>
+      <c r="BP39" s="23"/>
+      <c r="BQ39" s="22"/>
+      <c r="BR39" s="22"/>
+      <c r="BS39" s="22"/>
+      <c r="BT39" s="22"/>
+      <c r="BU39" s="22"/>
+      <c r="BV39" s="23"/>
+      <c r="BW39" s="24"/>
+      <c r="BX39" s="22"/>
+      <c r="BY39" s="22"/>
+      <c r="BZ39" s="22"/>
+      <c r="CA39" s="22"/>
+      <c r="CB39" s="22"/>
+      <c r="CC39" s="23"/>
+      <c r="CD39" s="24"/>
+      <c r="CE39" s="22"/>
+      <c r="CF39" s="22"/>
+      <c r="CG39" s="22"/>
+      <c r="CH39" s="22"/>
+      <c r="CI39" s="22"/>
+      <c r="CJ39" s="23"/>
+      <c r="CK39" s="24"/>
+      <c r="CL39" s="22"/>
+      <c r="CM39" s="5"/>
+      <c r="CN39" s="13"/>
+      <c r="CO39" s="22"/>
+      <c r="CP39" s="22"/>
+      <c r="CQ39" s="23"/>
+      <c r="CR39" s="24"/>
+      <c r="CS39" s="23"/>
+      <c r="CT39" s="23"/>
+      <c r="CU39" s="23"/>
+      <c r="CV39" s="22"/>
+      <c r="CW39" s="22"/>
+      <c r="CX39" s="23"/>
+      <c r="CY39" s="24"/>
+      <c r="CZ39" s="22"/>
+      <c r="DA39" s="22"/>
+      <c r="DB39" s="22"/>
+      <c r="DC39" s="22"/>
+      <c r="DD39" s="22"/>
+      <c r="DE39" s="23"/>
+      <c r="DF39" s="24"/>
+      <c r="DG39" s="22"/>
+      <c r="DH39" s="22"/>
+      <c r="DI39" s="22"/>
+      <c r="DJ39" s="22"/>
+      <c r="DK39" s="22"/>
+      <c r="DL39" s="23"/>
+      <c r="DM39" s="24"/>
+      <c r="DN39" s="22"/>
+      <c r="DO39" s="22"/>
+      <c r="DP39" s="22"/>
+      <c r="DQ39" s="22"/>
+      <c r="DR39" s="22"/>
+      <c r="DS39" s="23"/>
+      <c r="DT39" s="24"/>
+      <c r="DU39" s="22"/>
+      <c r="DV39" s="22"/>
+    </row>
+    <row r="40" spans="1:126" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="43"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="26">
+        <v>3</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+      <c r="AG40" s="22"/>
+      <c r="AH40" s="22"/>
+      <c r="AI40" s="22"/>
+      <c r="AJ40" s="23"/>
+      <c r="AK40" s="23"/>
+      <c r="AL40" s="22"/>
+      <c r="AM40" s="22"/>
+      <c r="AN40" s="22"/>
+      <c r="AO40" s="22"/>
+      <c r="AP40" s="22"/>
+      <c r="AQ40" s="23"/>
+      <c r="AR40" s="23"/>
+      <c r="AS40" s="22"/>
+      <c r="AT40" s="22"/>
+      <c r="AU40" s="22"/>
+      <c r="AV40" s="22"/>
+      <c r="AW40" s="22"/>
+      <c r="AX40" s="23"/>
+      <c r="AY40" s="23"/>
+      <c r="AZ40" s="22"/>
+      <c r="BA40" s="22"/>
+      <c r="BB40" s="22"/>
+      <c r="BC40" s="22"/>
+      <c r="BD40" s="22"/>
+      <c r="BE40" s="23"/>
+      <c r="BF40" s="23"/>
+      <c r="BG40" s="22"/>
+      <c r="BH40" s="6"/>
+      <c r="BI40" s="22"/>
+      <c r="BJ40" s="22"/>
+      <c r="BK40" s="22"/>
+      <c r="BL40" s="23"/>
+      <c r="BM40" s="23"/>
+      <c r="BN40" s="22"/>
+      <c r="BO40" s="24"/>
+      <c r="BP40" s="23"/>
+      <c r="BQ40" s="22"/>
+      <c r="BR40" s="22"/>
+      <c r="BS40" s="27"/>
+      <c r="BT40" s="22"/>
+      <c r="BU40" s="22"/>
+      <c r="BV40" s="23"/>
+      <c r="BW40" s="24"/>
+      <c r="BX40" s="22"/>
+      <c r="BY40" s="22"/>
+      <c r="BZ40" s="22"/>
+      <c r="CA40" s="22"/>
+      <c r="CB40" s="22"/>
+      <c r="CC40" s="23"/>
+      <c r="CD40" s="24"/>
+      <c r="CE40" s="22"/>
+      <c r="CF40" s="22"/>
+      <c r="CG40" s="22"/>
+      <c r="CH40" s="22"/>
+      <c r="CI40" s="22"/>
+      <c r="CJ40" s="23"/>
+      <c r="CK40" s="24"/>
+      <c r="CL40" s="22"/>
+      <c r="CM40" s="22"/>
+      <c r="CN40" s="5"/>
+      <c r="CO40" s="13"/>
+      <c r="CP40" s="22"/>
+      <c r="CQ40" s="23"/>
+      <c r="CR40" s="24"/>
+      <c r="CS40" s="23"/>
+      <c r="CT40" s="23"/>
+      <c r="CU40" s="23"/>
+      <c r="CV40" s="22"/>
+      <c r="CW40" s="22"/>
+      <c r="CX40" s="23"/>
+      <c r="CY40" s="24"/>
+      <c r="CZ40" s="22"/>
+      <c r="DA40" s="22"/>
+      <c r="DB40" s="22"/>
+      <c r="DC40" s="22"/>
+      <c r="DD40" s="22"/>
+      <c r="DE40" s="23"/>
+      <c r="DF40" s="24"/>
+      <c r="DG40" s="22"/>
+      <c r="DH40" s="22"/>
+      <c r="DI40" s="22"/>
+      <c r="DJ40" s="22"/>
+      <c r="DK40" s="22"/>
+      <c r="DL40" s="23"/>
+      <c r="DM40" s="24"/>
+      <c r="DN40" s="22"/>
+      <c r="DO40" s="22"/>
+      <c r="DP40" s="22"/>
+      <c r="DQ40" s="22"/>
+      <c r="DR40" s="22"/>
+      <c r="DS40" s="23"/>
+      <c r="DT40" s="24"/>
+      <c r="DU40" s="22"/>
+      <c r="DV40" s="22"/>
+    </row>
   </sheetData>
   <autoFilter ref="C3:AD7">
     <filterColumn colId="0" showButton="0"/>
@@ -4596,16 +7556,160 @@
     <filterColumn colId="25" showButton="0"/>
     <filterColumn colId="26" showButton="0"/>
   </autoFilter>
-  <mergeCells count="99">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="J7:W7"/>
-    <mergeCell ref="X7:Z7"/>
-    <mergeCell ref="AA7:AD7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="J6:W6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="F4:H19"/>
+  <mergeCells count="185">
+    <mergeCell ref="F21:H40"/>
+    <mergeCell ref="J40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AA40:AD40"/>
+    <mergeCell ref="AA36:AD36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="J37:W37"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="AA37:AD37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="J38:W38"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="AA38:AD38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="J39:W39"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="AA39:AD39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="J33:W33"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="J34:W34"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AA34:AD34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="J35:W35"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="J36:W36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="J31:W31"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="AA31:AD31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="J32:W32"/>
+    <mergeCell ref="X32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="X29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="J30:W30"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="J28:W28"/>
+    <mergeCell ref="X28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="X25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="J26:W26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="X23:Z23"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="J24:W24"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="X21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="J22:W22"/>
+    <mergeCell ref="X22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="J12:W12"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="J21:W21"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="J23:W23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="J25:W25"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="J27:W27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="J29:W29"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="J15:W15"/>
+    <mergeCell ref="X15:Z15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="J18:W18"/>
+    <mergeCell ref="X18:Z18"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="J19:W19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="J16:W16"/>
+    <mergeCell ref="X16:Z16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="J17:W17"/>
+    <mergeCell ref="X17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="J14:W14"/>
+    <mergeCell ref="DW1:EZ1"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="J8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="J9:W9"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AD9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="J10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="AE1:AS1"/>
+    <mergeCell ref="AT1:BM1"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="J11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="J13:W13"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="BN1:CR1"/>
+    <mergeCell ref="CS1:DV1"/>
+    <mergeCell ref="BX2:CD2"/>
+    <mergeCell ref="CE2:CK2"/>
+    <mergeCell ref="CL2:CR2"/>
+    <mergeCell ref="CS2:CY2"/>
+    <mergeCell ref="AE2:AK2"/>
+    <mergeCell ref="AL2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AZ2:BF2"/>
+    <mergeCell ref="BG2:BM2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="ER2:EX2"/>
     <mergeCell ref="A3:B3"/>
@@ -4622,6 +7726,15 @@
     <mergeCell ref="EK2:EQ2"/>
     <mergeCell ref="BN2:BO2"/>
     <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="J7:W7"/>
+    <mergeCell ref="X7:Z7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="J6:W6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="F4:H19"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="J5:W5"/>
     <mergeCell ref="X5:Z5"/>
@@ -4629,73 +7742,6 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="J4:W4"/>
     <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="BN1:CR1"/>
-    <mergeCell ref="CS1:DV1"/>
-    <mergeCell ref="BX2:CD2"/>
-    <mergeCell ref="CE2:CK2"/>
-    <mergeCell ref="CL2:CR2"/>
-    <mergeCell ref="CS2:CY2"/>
-    <mergeCell ref="AE2:AK2"/>
-    <mergeCell ref="AL2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AZ2:BF2"/>
-    <mergeCell ref="BG2:BM2"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="AA10:AD10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="J11:W11"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AD11"/>
-    <mergeCell ref="DW1:EZ1"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="J8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AD8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="J9:W9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AD9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="J10:W10"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="A1:AD1"/>
-    <mergeCell ref="AE1:AS1"/>
-    <mergeCell ref="AT1:BM1"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="AA12:AD12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="J13:W13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AD13"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="J18:W18"/>
-    <mergeCell ref="X18:Z18"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="J19:W19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="J16:W16"/>
-    <mergeCell ref="X16:Z16"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="J17:W17"/>
-    <mergeCell ref="X17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="J14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AD14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="J15:W15"/>
-    <mergeCell ref="X15:Z15"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="J12:W12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="X2">
